--- a/input/Financial Statement MSFT/Compiled Cashflow Statement-MSFT.xlsx
+++ b/input/Financial Statement MSFT/Compiled Cashflow Statement-MSFT.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,22 +442,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year Ended 2018</t>
+          <t>Q1 2019</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Q1 2019</t>
+          <t>Q2 2019</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Q2 2019</t>
+          <t>Q3 2019</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Q3 2019</t>
+          <t>Q4 2019</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -482,45 +482,60 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Q4 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Year Ended 2020</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Q1 2021</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Q2 2021</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Q3 2021</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 2021</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Year Ended 2021</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Q1 2022</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Q2 2022</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Q3 2022</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 2022</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Year Ended 2022</t>
         </is>
@@ -548,7 +563,10 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -561,16 +579,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16571</v>
+        <v>8824</v>
       </c>
       <c r="C3" t="n">
-        <v>8824</v>
+        <v>-404</v>
       </c>
       <c r="D3" t="n">
-        <v>8420</v>
+        <v>389</v>
       </c>
       <c r="E3" t="n">
-        <v>8809</v>
+        <v>30431</v>
       </c>
       <c r="F3" t="n">
         <v>39240</v>
@@ -579,36 +597,45 @@
         <v>10678</v>
       </c>
       <c r="H3" t="n">
-        <v>11649</v>
+        <v>971</v>
       </c>
       <c r="I3" t="n">
-        <v>10752</v>
+        <v>-897</v>
       </c>
       <c r="J3" t="n">
+        <v>33529</v>
+      </c>
+      <c r="K3" t="n">
         <v>44281</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>13893</v>
       </c>
-      <c r="L3" t="n">
-        <v>15463</v>
-      </c>
       <c r="M3" t="n">
-        <v>15457</v>
+        <v>1570</v>
       </c>
       <c r="N3" t="n">
+        <v>-6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>45814</v>
+      </c>
+      <c r="P3" t="n">
         <v>61271</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>20505</v>
       </c>
-      <c r="P3" t="n">
-        <v>18765</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>16728</v>
-      </c>
       <c r="R3" t="n">
+        <v>-1740</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-2037</v>
+      </c>
+      <c r="T3" t="n">
+        <v>56010</v>
+      </c>
+      <c r="U3" t="n">
         <v>72738</v>
       </c>
     </row>
@@ -634,7 +661,10 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -643,920 +673,1048 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>asset impairments</t>
+          <t>depreciation, amortization, and other</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+        <v>2837</v>
+      </c>
+      <c r="C5" t="n">
+        <v>158</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-69</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8756</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11682</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2971</v>
+      </c>
+      <c r="H5" t="n">
+        <v>232</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9678</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12796</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2645</v>
+      </c>
+      <c r="M5" t="n">
+        <v>116</v>
+      </c>
+      <c r="N5" t="n">
+        <v>175</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8750</v>
+      </c>
+      <c r="P5" t="n">
+        <v>11686</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3212</v>
+      </c>
+      <c r="R5" t="n">
+        <v>284</v>
+      </c>
+      <c r="S5" t="n">
+        <v>277</v>
+      </c>
+      <c r="T5" t="n">
+        <v>10687</v>
+      </c>
+      <c r="U5" t="n">
+        <v>14460</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>depreciation, amortization, and other</t>
+          <t>stock-based compensation expense</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10261</v>
+        <v>1107</v>
       </c>
       <c r="C6" t="n">
-        <v>2837</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>2995</v>
+        <v>-11</v>
       </c>
       <c r="E6" t="n">
-        <v>2926</v>
+        <v>3480</v>
       </c>
       <c r="F6" t="n">
-        <v>11682</v>
+        <v>4652</v>
       </c>
       <c r="G6" t="n">
-        <v>2971</v>
+        <v>1262</v>
       </c>
       <c r="H6" t="n">
-        <v>3203</v>
+        <v>78</v>
       </c>
       <c r="I6" t="n">
-        <v>3118</v>
+        <v>-2</v>
       </c>
       <c r="J6" t="n">
-        <v>12796</v>
+        <v>3951</v>
       </c>
       <c r="K6" t="n">
-        <v>2645</v>
+        <v>5289</v>
       </c>
       <c r="L6" t="n">
-        <v>2761</v>
+        <v>1456</v>
       </c>
       <c r="M6" t="n">
-        <v>2936</v>
+        <v>110</v>
       </c>
       <c r="N6" t="n">
-        <v>11686</v>
+        <v>-41</v>
       </c>
       <c r="O6" t="n">
-        <v>3212</v>
+        <v>4593</v>
       </c>
       <c r="P6" t="n">
-        <v>3496</v>
+        <v>6118</v>
       </c>
       <c r="Q6" t="n">
-        <v>3773</v>
+        <v>1702</v>
       </c>
       <c r="R6" t="n">
-        <v>14460</v>
+        <v>195</v>
+      </c>
+      <c r="S6" t="n">
+        <v>9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5596</v>
+      </c>
+      <c r="U6" t="n">
+        <v>7502</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>stock-based compensation expense</t>
+          <t>net recognized losss on investments and derivatives</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3940</v>
+        <v>-240</v>
       </c>
       <c r="C7" t="n">
-        <v>1107</v>
+        <v>105</v>
       </c>
       <c r="D7" t="n">
-        <v>1183</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>1172</v>
+        <v>-697</v>
       </c>
       <c r="F7" t="n">
-        <v>4652</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1262</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1340</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1338</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5289</v>
-      </c>
+        <v>-792</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>1456</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1566</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1525</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6118</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1702</v>
-      </c>
+        <v>-219</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>1897</v>
+        <v>-1249</v>
       </c>
       <c r="Q7" t="n">
-        <v>1906</v>
+        <v>-364</v>
       </c>
       <c r="R7" t="n">
-        <v>7502</v>
+        <v>57</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>-409</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>net recognized losss on investments and derivatives</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-2212</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-240</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-135</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-95</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-792</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>-203</v>
-      </c>
+          <t>net recognized losses on investments and derivatives</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>11</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>-219</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>-354</v>
+        <v>-128</v>
       </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
-        <v>-1249</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-364</v>
-      </c>
-      <c r="P8" t="n">
-        <v>-307</v>
-      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
-        <v>-409</v>
-      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>net recognized losses on investments and derivatives</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+          <t>deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-247</v>
+      </c>
+      <c r="C9" t="n">
+        <v>74</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-147</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-6143</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-6463</v>
+      </c>
       <c r="G9" t="n">
+        <v>-177</v>
+      </c>
+      <c r="H9" t="n">
+        <v>124</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-153</v>
+      </c>
+      <c r="J9" t="n">
+        <v>217</v>
+      </c>
+      <c r="K9" t="n">
         <v>11</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>52</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>-128</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>-11</v>
+      </c>
       <c r="M9" t="n">
-        <v>-351</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+        <v>-6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-71</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-150</v>
+      </c>
       <c r="Q9" t="n">
-        <v>105</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
+        <v>-5970</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6153</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-381</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-5504</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-5702</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-5143</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-247</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-173</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-320</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-6463</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-177</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-53</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-206</v>
-      </c>
-      <c r="J10" t="n">
-        <v>11</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-11</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-17</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-88</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-150</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-5970</v>
-      </c>
-      <c r="P10" t="n">
-        <v>183</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>-198</v>
-      </c>
-      <c r="R10" t="n">
-        <v>-5702</v>
+          <t>changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>accounts receivable</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9194</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-11590</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2856</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-3272</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-2812</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10090</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-14293</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5094</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-3468</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-2577</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8843</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-12851</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4298</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-6771</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-6481</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>10486</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-16029</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6400</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-7691</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-6834</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>accounts receivable</t>
+          <t>inventories</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3862</v>
+        <v>-956</v>
       </c>
       <c r="C12" t="n">
-        <v>9194</v>
+        <v>2610</v>
       </c>
       <c r="D12" t="n">
-        <v>-2396</v>
+        <v>-1642</v>
       </c>
       <c r="E12" t="n">
-        <v>460</v>
+        <v>585</v>
       </c>
       <c r="F12" t="n">
-        <v>-2812</v>
+        <v>597</v>
       </c>
       <c r="G12" t="n">
-        <v>10090</v>
+        <v>-561</v>
       </c>
       <c r="H12" t="n">
-        <v>-4203</v>
+        <v>1360</v>
       </c>
       <c r="I12" t="n">
-        <v>891</v>
+        <v>-618</v>
       </c>
       <c r="J12" t="n">
-        <v>-2577</v>
+        <v>-13</v>
       </c>
       <c r="K12" t="n">
-        <v>8843</v>
+        <v>168</v>
       </c>
       <c r="L12" t="n">
-        <v>-4008</v>
+        <v>-808</v>
       </c>
       <c r="M12" t="n">
-        <v>290</v>
+        <v>1596</v>
       </c>
       <c r="N12" t="n">
-        <v>-6481</v>
+        <v>-1117</v>
       </c>
       <c r="O12" t="n">
-        <v>10486</v>
+        <v>-408</v>
       </c>
       <c r="P12" t="n">
-        <v>-5543</v>
+        <v>-737</v>
       </c>
       <c r="Q12" t="n">
-        <v>857</v>
+        <v>-777</v>
       </c>
       <c r="R12" t="n">
-        <v>-6834</v>
+        <v>1171</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-673</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-844</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-1123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>inventories</t>
+          <t>other current assets</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-465</v>
+        <v>-677</v>
       </c>
       <c r="C13" t="n">
-        <v>-956</v>
+        <v>504</v>
       </c>
       <c r="D13" t="n">
-        <v>1654</v>
+        <v>159</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>-1704</v>
       </c>
       <c r="F13" t="n">
-        <v>597</v>
+        <v>-1718</v>
       </c>
       <c r="G13" t="n">
-        <v>-561</v>
+        <v>-438</v>
       </c>
       <c r="H13" t="n">
-        <v>799</v>
+        <v>603</v>
       </c>
       <c r="I13" t="n">
-        <v>181</v>
+        <v>-71</v>
       </c>
       <c r="J13" t="n">
-        <v>168</v>
+        <v>-2424</v>
       </c>
       <c r="K13" t="n">
-        <v>-808</v>
+        <v>-2330</v>
       </c>
       <c r="L13" t="n">
-        <v>788</v>
+        <v>-54</v>
       </c>
       <c r="M13" t="n">
-        <v>-329</v>
+        <v>784</v>
       </c>
       <c r="N13" t="n">
-        <v>-737</v>
+        <v>-252</v>
       </c>
       <c r="O13" t="n">
-        <v>-777</v>
+        <v>-1410</v>
       </c>
       <c r="P13" t="n">
-        <v>394</v>
+        <v>-932</v>
       </c>
       <c r="Q13" t="n">
-        <v>-279</v>
+        <v>940</v>
       </c>
       <c r="R13" t="n">
-        <v>-1123</v>
+        <v>-110</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-739</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-800</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-709</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>other current assets</t>
+          <t>other long-term assets</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-952</v>
+        <v>21</v>
       </c>
       <c r="C14" t="n">
-        <v>-677</v>
+        <v>-494</v>
       </c>
       <c r="D14" t="n">
-        <v>-173</v>
+        <v>-44</v>
       </c>
       <c r="E14" t="n">
-        <v>-14</v>
+        <v>-1317</v>
       </c>
       <c r="F14" t="n">
-        <v>-1718</v>
+        <v>-1834</v>
       </c>
       <c r="G14" t="n">
-        <v>-438</v>
+        <v>-333</v>
       </c>
       <c r="H14" t="n">
-        <v>165</v>
+        <v>-184</v>
       </c>
       <c r="I14" t="n">
-        <v>94</v>
+        <v>641</v>
       </c>
       <c r="J14" t="n">
-        <v>-2330</v>
+        <v>-1161</v>
       </c>
       <c r="K14" t="n">
-        <v>-54</v>
+        <v>-1037</v>
       </c>
       <c r="L14" t="n">
-        <v>730</v>
+        <v>-62</v>
       </c>
       <c r="M14" t="n">
-        <v>478</v>
+        <v>-1437</v>
       </c>
       <c r="N14" t="n">
-        <v>-932</v>
+        <v>614</v>
       </c>
       <c r="O14" t="n">
-        <v>940</v>
+        <v>-2574</v>
       </c>
       <c r="P14" t="n">
-        <v>830</v>
+        <v>-3459</v>
       </c>
       <c r="Q14" t="n">
-        <v>91</v>
+        <v>-598</v>
       </c>
       <c r="R14" t="n">
-        <v>-709</v>
+        <v>-310</v>
+      </c>
+      <c r="S14" t="n">
+        <v>184</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-2081</v>
+      </c>
+      <c r="U14" t="n">
+        <v>-2805</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>other long-term assets</t>
+          <t>accounts payable</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-285</v>
+        <v>-395</v>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>-45</v>
       </c>
       <c r="D15" t="n">
-        <v>-473</v>
+        <v>243</v>
       </c>
       <c r="E15" t="n">
-        <v>-517</v>
+        <v>429</v>
       </c>
       <c r="F15" t="n">
-        <v>-1834</v>
+        <v>232</v>
       </c>
       <c r="G15" t="n">
-        <v>-333</v>
+        <v>-547</v>
       </c>
       <c r="H15" t="n">
-        <v>-517</v>
+        <v>540</v>
       </c>
       <c r="I15" t="n">
-        <v>124</v>
+        <v>553</v>
       </c>
       <c r="J15" t="n">
-        <v>-1037</v>
+        <v>2472</v>
       </c>
       <c r="K15" t="n">
-        <v>-62</v>
+        <v>3018</v>
       </c>
       <c r="L15" t="n">
-        <v>-1499</v>
+        <v>315</v>
       </c>
       <c r="M15" t="n">
-        <v>-885</v>
+        <v>-282</v>
       </c>
       <c r="N15" t="n">
-        <v>-3459</v>
+        <v>800</v>
       </c>
       <c r="O15" t="n">
-        <v>-598</v>
+        <v>1965</v>
       </c>
       <c r="P15" t="n">
-        <v>-908</v>
+        <v>2798</v>
       </c>
       <c r="Q15" t="n">
-        <v>-724</v>
+        <v>-471</v>
       </c>
       <c r="R15" t="n">
-        <v>-2805</v>
+        <v>706</v>
+      </c>
+      <c r="S15" t="n">
+        <v>285</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2423</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2943</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>accounts payable</t>
+          <t>unearned revenue</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1148</v>
+        <v>-2441</v>
       </c>
       <c r="C16" t="n">
-        <v>-395</v>
+        <v>319</v>
       </c>
       <c r="D16" t="n">
-        <v>-440</v>
+        <v>2142</v>
       </c>
       <c r="E16" t="n">
-        <v>-197</v>
+        <v>4442</v>
       </c>
       <c r="F16" t="n">
-        <v>232</v>
+        <v>4462</v>
       </c>
       <c r="G16" t="n">
-        <v>-547</v>
+        <v>-2892</v>
       </c>
       <c r="H16" t="n">
-        <v>-7</v>
+        <v>-44</v>
       </c>
       <c r="I16" t="n">
-        <v>546</v>
+        <v>2200</v>
       </c>
       <c r="J16" t="n">
-        <v>3018</v>
+        <v>2948</v>
       </c>
       <c r="K16" t="n">
-        <v>315</v>
+        <v>2212</v>
       </c>
       <c r="L16" t="n">
-        <v>33</v>
+        <v>-3064</v>
       </c>
       <c r="M16" t="n">
-        <v>833</v>
+        <v>-163</v>
       </c>
       <c r="N16" t="n">
-        <v>2798</v>
+        <v>2754</v>
       </c>
       <c r="O16" t="n">
-        <v>-471</v>
+        <v>5106</v>
       </c>
       <c r="P16" t="n">
-        <v>235</v>
+        <v>4633</v>
       </c>
       <c r="Q16" t="n">
-        <v>520</v>
+        <v>-2885</v>
       </c>
       <c r="R16" t="n">
-        <v>2943</v>
+        <v>-1458</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4134</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5318</v>
+      </c>
+      <c r="U16" t="n">
+        <v>5109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>unearned revenue</t>
+          <t>income taxes</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5922</v>
+        <v>-1091</v>
       </c>
       <c r="C17" t="n">
-        <v>-2441</v>
+        <v>1027</v>
       </c>
       <c r="D17" t="n">
-        <v>-2122</v>
+        <v>340</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>2653</v>
       </c>
       <c r="F17" t="n">
-        <v>4462</v>
+        <v>2929</v>
       </c>
       <c r="G17" t="n">
-        <v>-2892</v>
+        <v>-3336</v>
       </c>
       <c r="H17" t="n">
-        <v>-2936</v>
+        <v>2865</v>
       </c>
       <c r="I17" t="n">
-        <v>-736</v>
+        <v>1236</v>
       </c>
       <c r="J17" t="n">
-        <v>2212</v>
+        <v>-4396</v>
       </c>
       <c r="K17" t="n">
-        <v>-3064</v>
+        <v>-3631</v>
       </c>
       <c r="L17" t="n">
-        <v>-3227</v>
+        <v>-983</v>
       </c>
       <c r="M17" t="n">
-        <v>-473</v>
+        <v>-1385</v>
       </c>
       <c r="N17" t="n">
-        <v>4633</v>
+        <v>3442</v>
       </c>
       <c r="O17" t="n">
-        <v>-2885</v>
+        <v>-3383</v>
       </c>
       <c r="P17" t="n">
-        <v>-4343</v>
+        <v>-2309</v>
       </c>
       <c r="Q17" t="n">
-        <v>-209</v>
+        <v>2653</v>
       </c>
       <c r="R17" t="n">
-        <v>5109</v>
+        <v>-4710</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3148</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-395</v>
+      </c>
+      <c r="U17" t="n">
+        <v>696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>income taxes</t>
+          <t>other current liabilities</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18183</v>
+        <v>-2322</v>
       </c>
       <c r="C18" t="n">
-        <v>-1091</v>
+        <v>2978</v>
       </c>
       <c r="D18" t="n">
-        <v>-64</v>
+        <v>-7</v>
       </c>
       <c r="E18" t="n">
-        <v>276</v>
+        <v>770</v>
       </c>
       <c r="F18" t="n">
-        <v>2929</v>
+        <v>1419</v>
       </c>
       <c r="G18" t="n">
-        <v>-3336</v>
+        <v>-3320</v>
       </c>
       <c r="H18" t="n">
-        <v>-471</v>
+        <v>4809</v>
       </c>
       <c r="I18" t="n">
-        <v>765</v>
+        <v>-794</v>
       </c>
       <c r="J18" t="n">
-        <v>-3631</v>
+        <v>651</v>
       </c>
       <c r="K18" t="n">
-        <v>-983</v>
+        <v>1346</v>
       </c>
       <c r="L18" t="n">
-        <v>-2368</v>
+        <v>-2951</v>
       </c>
       <c r="M18" t="n">
-        <v>1074</v>
+        <v>4706</v>
       </c>
       <c r="N18" t="n">
-        <v>-2309</v>
+        <v>-165</v>
       </c>
       <c r="O18" t="n">
-        <v>2653</v>
+        <v>2559</v>
       </c>
       <c r="P18" t="n">
-        <v>-2057</v>
+        <v>4149</v>
       </c>
       <c r="Q18" t="n">
-        <v>1091</v>
+        <v>-4143</v>
       </c>
       <c r="R18" t="n">
-        <v>696</v>
+        <v>5888</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-458</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1057</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2344</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>other current liabilities</t>
+          <t>other long-term liabilities</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>798</v>
+        <v>43</v>
       </c>
       <c r="C19" t="n">
-        <v>-2322</v>
+        <v>-75</v>
       </c>
       <c r="D19" t="n">
-        <v>656</v>
+        <v>371</v>
       </c>
       <c r="E19" t="n">
+        <v>252</v>
+      </c>
+      <c r="F19" t="n">
+        <v>591</v>
+      </c>
+      <c r="G19" t="n">
+        <v>410</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-535</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1458</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1348</v>
+      </c>
+      <c r="L19" t="n">
+        <v>244</v>
+      </c>
+      <c r="M19" t="n">
         <v>649</v>
       </c>
-      <c r="F19" t="n">
-        <v>1419</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-3320</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1489</v>
-      </c>
-      <c r="I19" t="n">
-        <v>695</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1346</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-2951</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1755</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1590</v>
-      </c>
       <c r="N19" t="n">
-        <v>4149</v>
+        <v>-771</v>
       </c>
       <c r="O19" t="n">
-        <v>-4143</v>
+        <v>1280</v>
       </c>
       <c r="P19" t="n">
-        <v>1745</v>
+        <v>1402</v>
       </c>
       <c r="Q19" t="n">
-        <v>1287</v>
+        <v>250</v>
       </c>
       <c r="R19" t="n">
-        <v>2344</v>
+        <v>-157</v>
+      </c>
+      <c r="S19" t="n">
+        <v>345</v>
+      </c>
+      <c r="T19" t="n">
+        <v>387</v>
+      </c>
+      <c r="U19" t="n">
+        <v>825</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>other long-term liabilities</t>
+          <t>net cash from operations</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-20</v>
+        <v>13657</v>
       </c>
       <c r="C20" t="n">
-        <v>43</v>
+        <v>-4757</v>
       </c>
       <c r="D20" t="n">
-        <v>-32</v>
+        <v>4620</v>
       </c>
       <c r="E20" t="n">
-        <v>339</v>
+        <v>38665</v>
       </c>
       <c r="F20" t="n">
-        <v>591</v>
+        <v>52185</v>
       </c>
       <c r="G20" t="n">
-        <v>410</v>
+        <v>13818</v>
       </c>
       <c r="H20" t="n">
-        <v>425</v>
+        <v>-3138</v>
       </c>
       <c r="I20" t="n">
-        <v>-110</v>
+        <v>6824</v>
       </c>
       <c r="J20" t="n">
-        <v>1348</v>
+        <v>43171</v>
       </c>
       <c r="K20" t="n">
-        <v>244</v>
+        <v>60675</v>
       </c>
       <c r="L20" t="n">
-        <v>893</v>
+        <v>19335</v>
       </c>
       <c r="M20" t="n">
-        <v>122</v>
+        <v>-6819</v>
       </c>
       <c r="N20" t="n">
-        <v>1402</v>
+        <v>9663</v>
       </c>
       <c r="O20" t="n">
-        <v>250</v>
+        <v>54561</v>
       </c>
       <c r="P20" t="n">
-        <v>93</v>
+        <v>76740</v>
       </c>
       <c r="Q20" t="n">
-        <v>438</v>
+        <v>24540</v>
       </c>
       <c r="R20" t="n">
-        <v>825</v>
+        <v>-10060</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10906</v>
+      </c>
+      <c r="T20" t="n">
+        <v>63649</v>
+      </c>
+      <c r="U20" t="n">
+        <v>89035</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>net cash from operations</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>43884</v>
-      </c>
-      <c r="C21" t="n">
-        <v>13657</v>
-      </c>
-      <c r="D21" t="n">
-        <v>8900</v>
-      </c>
-      <c r="E21" t="n">
-        <v>13520</v>
-      </c>
-      <c r="F21" t="n">
-        <v>52185</v>
-      </c>
-      <c r="G21" t="n">
-        <v>13818</v>
-      </c>
-      <c r="H21" t="n">
-        <v>10680</v>
-      </c>
-      <c r="I21" t="n">
-        <v>17504</v>
-      </c>
-      <c r="J21" t="n">
-        <v>60675</v>
-      </c>
-      <c r="K21" t="n">
-        <v>19335</v>
-      </c>
-      <c r="L21" t="n">
-        <v>12516</v>
-      </c>
-      <c r="M21" t="n">
-        <v>22179</v>
-      </c>
-      <c r="N21" t="n">
-        <v>76740</v>
-      </c>
-      <c r="O21" t="n">
-        <v>24540</v>
-      </c>
-      <c r="P21" t="n">
-        <v>14480</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>25386</v>
-      </c>
-      <c r="R21" t="n">
-        <v>89035</v>
+          <t>financing</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>financing</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>repayments of short-term debt, maturities of days or less, net</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1564,13 +1722,9 @@
           <t>proceeds from issuance of short-term debt, maturities of days or less, net</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>-7324</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1585,18 +1739,25 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>repayments of short-term debt, maturities of days or less, net</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>proceeds from issuance of debt</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
@@ -1606,10 +1767,10 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
         <v>0</v>
       </c>
-      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -1617,365 +1778,443 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>proceeds from issuance of debt</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>7183</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
+          <t>cash premium on debt exchange</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>-3417</v>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-1754</v>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>cash premium on debt exchange</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+          <t>repayments of debt</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-4000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-4000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2482</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-2982</v>
+      </c>
       <c r="J26" t="n">
-        <v>-3417</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+        <v>-2518</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-5518</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
       <c r="M26" t="n">
-        <v>-1754</v>
+        <v>-3250</v>
       </c>
       <c r="N26" t="n">
-        <v>-1754</v>
-      </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+        <v>2750</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-3250</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-3750</v>
+      </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-4826</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4826</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-4197</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-4826</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-9023</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>repayments of debt</t>
+          <t>common stock issued</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-10060</v>
+        <v>360</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="D27" t="n">
-        <v>-3000</v>
+        <v>74</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="F27" t="n">
-        <v>-4000</v>
+        <v>1142</v>
       </c>
       <c r="G27" t="n">
-        <v>-2500</v>
+        <v>427</v>
       </c>
       <c r="H27" t="n">
-        <v>-18</v>
+        <v>-193</v>
       </c>
       <c r="I27" t="n">
-        <v>-3000</v>
+        <v>108</v>
       </c>
       <c r="J27" t="n">
-        <v>-5518</v>
+        <v>1001</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1343</v>
       </c>
       <c r="L27" t="n">
-        <v>-3250</v>
+        <v>545</v>
       </c>
       <c r="M27" t="n">
-        <v>-500</v>
+        <v>-243</v>
       </c>
       <c r="N27" t="n">
-        <v>-3750</v>
+        <v>94</v>
       </c>
       <c r="O27" t="n">
-        <v>-4826</v>
+        <v>1297</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1693</v>
       </c>
       <c r="Q27" t="n">
-        <v>-4197</v>
+        <v>612</v>
       </c>
       <c r="R27" t="n">
-        <v>-9023</v>
+        <v>-321</v>
+      </c>
+      <c r="S27" t="n">
+        <v>186</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1364</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1841</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>common stock issued</t>
+          <t>common stock repurchased</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1002</v>
+        <v>-3744</v>
       </c>
       <c r="C28" t="n">
-        <v>360</v>
+        <v>-2669</v>
       </c>
       <c r="D28" t="n">
-        <v>200</v>
+        <v>1660</v>
       </c>
       <c r="E28" t="n">
-        <v>274</v>
+        <v>-14790</v>
       </c>
       <c r="F28" t="n">
-        <v>1142</v>
+        <v>-19543</v>
       </c>
       <c r="G28" t="n">
-        <v>427</v>
+        <v>-4912</v>
       </c>
       <c r="H28" t="n">
-        <v>234</v>
+        <v>-294</v>
       </c>
       <c r="I28" t="n">
-        <v>342</v>
+        <v>-1853</v>
       </c>
       <c r="J28" t="n">
-        <v>1343</v>
+        <v>-15909</v>
       </c>
       <c r="K28" t="n">
-        <v>545</v>
+        <v>-22968</v>
       </c>
       <c r="L28" t="n">
-        <v>302</v>
+        <v>-6743</v>
       </c>
       <c r="M28" t="n">
-        <v>396</v>
+        <v>208</v>
       </c>
       <c r="N28" t="n">
-        <v>1693</v>
+        <v>-395</v>
       </c>
       <c r="O28" t="n">
-        <v>612</v>
+        <v>-20455</v>
       </c>
       <c r="P28" t="n">
-        <v>291</v>
+        <v>-27385</v>
       </c>
       <c r="Q28" t="n">
-        <v>477</v>
+        <v>-7684</v>
       </c>
       <c r="R28" t="n">
-        <v>1841</v>
+        <v>251</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-1389</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-23874</v>
+      </c>
+      <c r="U28" t="n">
+        <v>-32696</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>common stock repurchased</t>
+          <t>common stock cash dividends paid</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-10721</v>
+        <v>-3220</v>
       </c>
       <c r="C29" t="n">
-        <v>-3744</v>
+        <v>-324</v>
       </c>
       <c r="D29" t="n">
-        <v>-6413</v>
+        <v>18</v>
       </c>
       <c r="E29" t="n">
-        <v>-4753</v>
+        <v>-10285</v>
       </c>
       <c r="F29" t="n">
-        <v>-19543</v>
+        <v>-13811</v>
       </c>
       <c r="G29" t="n">
-        <v>-4912</v>
+        <v>-3510</v>
       </c>
       <c r="H29" t="n">
-        <v>-5206</v>
+        <v>-376</v>
       </c>
       <c r="I29" t="n">
-        <v>-7059</v>
+        <v>10</v>
       </c>
       <c r="J29" t="n">
-        <v>-22968</v>
+        <v>-11261</v>
       </c>
       <c r="K29" t="n">
-        <v>-6743</v>
+        <v>-15137</v>
       </c>
       <c r="L29" t="n">
-        <v>-6535</v>
+        <v>-3856</v>
       </c>
       <c r="M29" t="n">
-        <v>-6930</v>
+        <v>-374</v>
       </c>
       <c r="N29" t="n">
-        <v>-27385</v>
+        <v>9</v>
       </c>
       <c r="O29" t="n">
-        <v>-7684</v>
+        <v>-12300</v>
       </c>
       <c r="P29" t="n">
-        <v>-7433</v>
+        <v>-16521</v>
       </c>
       <c r="Q29" t="n">
-        <v>-8822</v>
+        <v>-4206</v>
       </c>
       <c r="R29" t="n">
-        <v>-32696</v>
+        <v>-446</v>
+      </c>
+      <c r="S29" t="n">
+        <v>7</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-13490</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-18135</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>common stock cash dividends paid</t>
+          <t>other, net</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-12699</v>
+        <v>-780</v>
       </c>
       <c r="C30" t="n">
-        <v>-3220</v>
+        <v>321</v>
       </c>
       <c r="D30" t="n">
-        <v>-3544</v>
+        <v>863</v>
       </c>
       <c r="E30" t="n">
-        <v>-3526</v>
+        <v>-1079</v>
       </c>
       <c r="F30" t="n">
-        <v>-13811</v>
+        <v>-675</v>
       </c>
       <c r="G30" t="n">
-        <v>-3510</v>
+        <v>286</v>
       </c>
       <c r="H30" t="n">
-        <v>-3886</v>
+        <v>-325</v>
       </c>
       <c r="I30" t="n">
-        <v>-3876</v>
+        <v>-1013</v>
       </c>
       <c r="J30" t="n">
-        <v>-15137</v>
+        <v>718</v>
       </c>
       <c r="K30" t="n">
-        <v>-3856</v>
+        <v>-334</v>
       </c>
       <c r="L30" t="n">
-        <v>-4230</v>
+        <v>-235</v>
       </c>
       <c r="M30" t="n">
-        <v>-4221</v>
+        <v>314</v>
       </c>
       <c r="N30" t="n">
-        <v>-16521</v>
+        <v>-262</v>
       </c>
       <c r="O30" t="n">
-        <v>-4206</v>
+        <v>-586</v>
       </c>
       <c r="P30" t="n">
-        <v>-4652</v>
+        <v>-769</v>
       </c>
       <c r="Q30" t="n">
-        <v>-4645</v>
+        <v>-172</v>
       </c>
       <c r="R30" t="n">
-        <v>-18135</v>
+        <v>-20</v>
+      </c>
+      <c r="S30" t="n">
+        <v>34</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-705</v>
+      </c>
+      <c r="U30" t="n">
+        <v>-863</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>other, net</t>
+          <t>net cash used in financing</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-971</v>
+        <v>-7384</v>
       </c>
       <c r="C31" t="n">
-        <v>-780</v>
+        <v>-5832</v>
       </c>
       <c r="D31" t="n">
-        <v>-459</v>
-      </c>
-      <c r="E31" t="n">
-        <v>404</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-675</v>
-      </c>
+        <v>5615</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>286</v>
+        <v>-10209</v>
       </c>
       <c r="H31" t="n">
-        <v>-39</v>
+        <v>1294</v>
       </c>
       <c r="I31" t="n">
-        <v>-1052</v>
+        <v>-5730</v>
       </c>
       <c r="J31" t="n">
-        <v>-334</v>
+        <v>-31386</v>
       </c>
       <c r="K31" t="n">
-        <v>-235</v>
+        <v>-46031</v>
       </c>
       <c r="L31" t="n">
-        <v>79</v>
+        <v>-10289</v>
       </c>
       <c r="M31" t="n">
-        <v>-183</v>
+        <v>-3345</v>
       </c>
       <c r="N31" t="n">
-        <v>-769</v>
+        <v>442</v>
       </c>
       <c r="O31" t="n">
-        <v>-172</v>
+        <v>-35294</v>
       </c>
       <c r="P31" t="n">
-        <v>-192</v>
+        <v>-48486</v>
       </c>
       <c r="Q31" t="n">
-        <v>-158</v>
+        <v>-16276</v>
       </c>
       <c r="R31" t="n">
-        <v>-863</v>
+        <v>4290</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-5359</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-41531</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-58876</v>
       </c>
     </row>
     <row r="32">
@@ -1984,9 +2223,7 @@
           <t>net cash from financing</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>-33590</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
@@ -2005,685 +2242,753 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>net cash used in financing</t>
+          <t>investing</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
-        <v>-7384</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-13216</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-7601</v>
-      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="n">
-        <v>-10209</v>
-      </c>
-      <c r="H33" t="n">
-        <v>-8915</v>
-      </c>
-      <c r="I33" t="n">
-        <v>-14645</v>
-      </c>
-      <c r="J33" t="n">
-        <v>-46031</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-10289</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-13634</v>
-      </c>
-      <c r="M33" t="n">
-        <v>-13192</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-48486</v>
-      </c>
-      <c r="O33" t="n">
-        <v>-16276</v>
-      </c>
-      <c r="P33" t="n">
-        <v>-11986</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>-17345</v>
-      </c>
-      <c r="R33" t="n">
-        <v>-58876</v>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>investing</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>additions to property and equipment</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-3602</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-105</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1142</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-11360</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-13925</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-3385</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-160</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-222</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-11674</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-15441</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-4907</v>
+      </c>
+      <c r="M34" t="n">
+        <v>733</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-915</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-15533</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-20622</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-5810</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-55</v>
+      </c>
+      <c r="S34" t="n">
+        <v>525</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-18546</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-23886</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>additions to property and equipment</t>
+          <t>acquisition of companies, net of cash acquired, and purchases of intangible and other assets</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-11632</v>
+        <v>-245</v>
       </c>
       <c r="C35" t="n">
-        <v>-3602</v>
+        <v>-1348</v>
       </c>
       <c r="D35" t="n">
-        <v>-3707</v>
+        <v>1324</v>
       </c>
       <c r="E35" t="n">
-        <v>-2565</v>
+        <v>-2119</v>
       </c>
       <c r="F35" t="n">
-        <v>-13925</v>
+        <v>-2388</v>
       </c>
       <c r="G35" t="n">
-        <v>-3385</v>
+        <v>-462</v>
       </c>
       <c r="H35" t="n">
-        <v>-3545</v>
+        <v>382</v>
       </c>
       <c r="I35" t="n">
-        <v>-3767</v>
+        <v>-249</v>
       </c>
       <c r="J35" t="n">
-        <v>-15441</v>
+        <v>-2192</v>
       </c>
       <c r="K35" t="n">
-        <v>-4907</v>
+        <v>-2521</v>
       </c>
       <c r="L35" t="n">
-        <v>-4174</v>
+        <v>-481</v>
       </c>
       <c r="M35" t="n">
-        <v>-5089</v>
+        <v>66</v>
       </c>
       <c r="N35" t="n">
-        <v>-20622</v>
+        <v>-7097</v>
       </c>
       <c r="O35" t="n">
-        <v>-5810</v>
+        <v>-1397</v>
       </c>
       <c r="P35" t="n">
-        <v>-5865</v>
+        <v>-8909</v>
       </c>
       <c r="Q35" t="n">
-        <v>-5340</v>
+        <v>-1206</v>
       </c>
       <c r="R35" t="n">
-        <v>-23886</v>
+        <v>356</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-17869</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-3319</v>
+      </c>
+      <c r="U35" t="n">
+        <v>-22038</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>acquisition of companies, net of cash acquired, and purchases of intangible and other assets</t>
+          <t>purchases of investments</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-888</v>
+        <v>-19551</v>
       </c>
       <c r="C36" t="n">
-        <v>-245</v>
+        <v>2693</v>
       </c>
       <c r="D36" t="n">
-        <v>-1593</v>
+        <v>11012</v>
       </c>
       <c r="E36" t="n">
-        <v>-269</v>
+        <v>-51851</v>
       </c>
       <c r="F36" t="n">
-        <v>-2388</v>
+        <v>-57697</v>
       </c>
       <c r="G36" t="n">
-        <v>-462</v>
+        <v>-23390</v>
       </c>
       <c r="H36" t="n">
-        <v>-80</v>
+        <v>4379</v>
       </c>
       <c r="I36" t="n">
-        <v>-329</v>
+        <v>3101</v>
       </c>
       <c r="J36" t="n">
-        <v>-2521</v>
+        <v>-61280</v>
       </c>
       <c r="K36" t="n">
-        <v>-481</v>
+        <v>-77190</v>
       </c>
       <c r="L36" t="n">
-        <v>-415</v>
+        <v>-14580</v>
       </c>
       <c r="M36" t="n">
-        <v>-7512</v>
+        <v>-512</v>
       </c>
       <c r="N36" t="n">
-        <v>-8909</v>
+        <v>-3283</v>
       </c>
       <c r="O36" t="n">
-        <v>-1206</v>
+        <v>-44549</v>
       </c>
       <c r="P36" t="n">
-        <v>-850</v>
+        <v>-62924</v>
       </c>
       <c r="Q36" t="n">
-        <v>-18719</v>
+        <v>-10309</v>
       </c>
       <c r="R36" t="n">
-        <v>-22038</v>
+        <v>7804</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-6218</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-17733</v>
+      </c>
+      <c r="U36" t="n">
+        <v>-26456</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>purchases of investments</t>
+          <t>maturities of investments</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-137380</v>
+        <v>5214</v>
       </c>
       <c r="C37" t="n">
-        <v>-19551</v>
+        <v>-1432</v>
       </c>
       <c r="D37" t="n">
-        <v>-16858</v>
+        <v>2111</v>
       </c>
       <c r="E37" t="n">
-        <v>-5846</v>
+        <v>14150</v>
       </c>
       <c r="F37" t="n">
-        <v>-57697</v>
+        <v>20043</v>
       </c>
       <c r="G37" t="n">
-        <v>-23390</v>
+        <v>19082</v>
       </c>
       <c r="H37" t="n">
-        <v>-19011</v>
+        <v>-7852</v>
       </c>
       <c r="I37" t="n">
-        <v>-15910</v>
+        <v>6017</v>
       </c>
       <c r="J37" t="n">
-        <v>-77190</v>
+        <v>49202</v>
       </c>
       <c r="K37" t="n">
-        <v>-14580</v>
+        <v>66449</v>
       </c>
       <c r="L37" t="n">
-        <v>-15092</v>
+        <v>14266</v>
       </c>
       <c r="M37" t="n">
-        <v>-18375</v>
+        <v>998</v>
       </c>
       <c r="N37" t="n">
-        <v>-62924</v>
+        <v>-248</v>
       </c>
       <c r="O37" t="n">
-        <v>-10309</v>
+        <v>36776</v>
       </c>
       <c r="P37" t="n">
-        <v>-2505</v>
+        <v>51792</v>
       </c>
       <c r="Q37" t="n">
-        <v>-8723</v>
+        <v>8862</v>
       </c>
       <c r="R37" t="n">
-        <v>-26456</v>
+        <v>-3609</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-4154</v>
+      </c>
+      <c r="T37" t="n">
+        <v>15352</v>
+      </c>
+      <c r="U37" t="n">
+        <v>16451</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>maturities of investments</t>
+          <t>sales of investments</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>26360</v>
+        <v>15231</v>
       </c>
       <c r="C38" t="n">
-        <v>5214</v>
+        <v>-1055</v>
       </c>
       <c r="D38" t="n">
-        <v>3782</v>
+        <v>-12752</v>
       </c>
       <c r="E38" t="n">
-        <v>5893</v>
+        <v>36770</v>
       </c>
       <c r="F38" t="n">
-        <v>20043</v>
+        <v>38194</v>
       </c>
       <c r="G38" t="n">
-        <v>19082</v>
+        <v>6379</v>
       </c>
       <c r="H38" t="n">
-        <v>11230</v>
+        <v>-1009</v>
       </c>
       <c r="I38" t="n">
-        <v>17247</v>
+        <v>-2560</v>
       </c>
       <c r="J38" t="n">
-        <v>66449</v>
+        <v>14911</v>
       </c>
       <c r="K38" t="n">
-        <v>14266</v>
+        <v>17721</v>
       </c>
       <c r="L38" t="n">
-        <v>15264</v>
+        <v>2414</v>
       </c>
       <c r="M38" t="n">
-        <v>15016</v>
+        <v>7</v>
       </c>
       <c r="N38" t="n">
-        <v>51792</v>
+        <v>3455</v>
       </c>
       <c r="O38" t="n">
-        <v>8862</v>
+        <v>8132</v>
       </c>
       <c r="P38" t="n">
-        <v>5253</v>
+        <v>14008</v>
       </c>
       <c r="Q38" t="n">
-        <v>1099</v>
+        <v>5630</v>
       </c>
       <c r="R38" t="n">
-        <v>16451</v>
+        <v>-2735</v>
+      </c>
+      <c r="S38" t="n">
+        <v>13798</v>
+      </c>
+      <c r="T38" t="n">
+        <v>11750</v>
+      </c>
+      <c r="U38" t="n">
+        <v>28443</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sales of investments</t>
+          <t>securities lending payable</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>117577</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>15231</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>14176</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1424</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>38194</v>
-      </c>
-      <c r="G39" t="n">
-        <v>6379</v>
-      </c>
-      <c r="H39" t="n">
-        <v>5370</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2810</v>
-      </c>
-      <c r="J39" t="n">
-        <v>17721</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2414</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2421</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5876</v>
-      </c>
-      <c r="N39" t="n">
-        <v>14008</v>
-      </c>
-      <c r="O39" t="n">
-        <v>5630</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2895</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>16693</v>
-      </c>
-      <c r="R39" t="n">
-        <v>28443</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>securities lending payable</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>-98</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
+          <t>other, net</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>-1241</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-2083</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2410</v>
+      </c>
+      <c r="N40" t="n">
+        <v>73</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-1322</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-922</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-417</v>
+      </c>
+      <c r="R40" t="n">
+        <v>328</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-1092</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-1644</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-2825</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>other, net</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+          <t>net cash used in investing</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-2953</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1247</v>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>-15773</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-1776</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-4260</v>
+      </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>-1241</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>-2083</v>
+        <v>-12223</v>
       </c>
       <c r="L41" t="n">
-        <v>327</v>
+        <v>-5371</v>
       </c>
       <c r="M41" t="n">
-        <v>400</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-922</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-417</v>
-      </c>
+        <v>3702</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>-89</v>
+        <v>-27577</v>
       </c>
       <c r="Q41" t="n">
-        <v>-1181</v>
+        <v>-3250</v>
       </c>
       <c r="R41" t="n">
-        <v>-2825</v>
+        <v>2089</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-15010</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-14140</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-30311</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>net cash used in investing</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>-6061</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-2953</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-4200</v>
-      </c>
+          <t>net cash from investing</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
-        <v>-15773</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-1776</v>
-      </c>
-      <c r="H42" t="n">
-        <v>-6036</v>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>-12223</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-5371</v>
-      </c>
-      <c r="L42" t="n">
-        <v>-1669</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>-27577</v>
-      </c>
-      <c r="O42" t="n">
-        <v>-3250</v>
-      </c>
-      <c r="P42" t="n">
-        <v>-1161</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>-16171</v>
-      </c>
-      <c r="R42" t="n">
-        <v>-30311</v>
-      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>net cash from investing</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+          <t>effect of foreign exchange rates on cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-129</v>
+      </c>
+      <c r="C43" t="n">
+        <v>146</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
       <c r="E43" t="n">
-        <v>-1363</v>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+        <v>-133</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-115</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-72</v>
+      </c>
+      <c r="H43" t="n">
+        <v>90</v>
+      </c>
       <c r="I43" t="n">
-        <v>51</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+        <v>-82</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-137</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-201</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-46</v>
+      </c>
       <c r="M43" t="n">
-        <v>-9684</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-47</v>
+      </c>
+      <c r="O43" t="n">
+        <v>4</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-29</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-73</v>
+      </c>
+      <c r="R43" t="n">
+        <v>179</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-82</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-165</v>
+      </c>
+      <c r="U43" t="n">
+        <v>-141</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>effect of foreign exchange rates on cash and cash equivalents</t>
+          <t>net change in cash and cash equivalents</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50</v>
+        <v>3191</v>
       </c>
       <c r="C44" t="n">
-        <v>-129</v>
+        <v>-11690</v>
       </c>
       <c r="D44" t="n">
-        <v>17</v>
+        <v>13073</v>
       </c>
       <c r="E44" t="n">
-        <v>18</v>
+        <v>-5164</v>
       </c>
       <c r="F44" t="n">
-        <v>-115</v>
+        <v>-590</v>
       </c>
       <c r="G44" t="n">
-        <v>-72</v>
+        <v>1761</v>
       </c>
       <c r="H44" t="n">
-        <v>18</v>
+        <v>-6014</v>
       </c>
       <c r="I44" t="n">
-        <v>-64</v>
+        <v>7099</v>
       </c>
       <c r="J44" t="n">
-        <v>-201</v>
+        <v>-626</v>
       </c>
       <c r="K44" t="n">
-        <v>-46</v>
+        <v>2220</v>
       </c>
       <c r="L44" t="n">
-        <v>14</v>
+        <v>3629</v>
       </c>
       <c r="M44" t="n">
-        <v>-33</v>
+        <v>-6402</v>
       </c>
       <c r="N44" t="n">
-        <v>-29</v>
+        <v>2043</v>
       </c>
       <c r="O44" t="n">
-        <v>-73</v>
+        <v>1378</v>
       </c>
       <c r="P44" t="n">
-        <v>106</v>
+        <v>648</v>
       </c>
       <c r="Q44" t="n">
-        <v>24</v>
+        <v>4941</v>
       </c>
       <c r="R44" t="n">
-        <v>-141</v>
+        <v>-3502</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-9545</v>
+      </c>
+      <c r="T44" t="n">
+        <v>7813</v>
+      </c>
+      <c r="U44" t="n">
+        <v>-293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>net change in cash and cash equivalents</t>
+          <t>cash and cash equivalents, beginning of period</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4283</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3191</v>
-      </c>
-      <c r="D45" t="n">
-        <v>-8499</v>
-      </c>
-      <c r="E45" t="n">
-        <v>4574</v>
-      </c>
+        <v>11946</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>-590</v>
+        <v>11946</v>
       </c>
       <c r="G45" t="n">
-        <v>1761</v>
-      </c>
-      <c r="H45" t="n">
-        <v>-4253</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2846</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2220</v>
-      </c>
+        <v>11356</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>3629</v>
+        <v>11356</v>
       </c>
       <c r="L45" t="n">
-        <v>-2773</v>
-      </c>
-      <c r="M45" t="n">
-        <v>-730</v>
-      </c>
-      <c r="N45" t="n">
-        <v>648</v>
-      </c>
-      <c r="O45" t="n">
-        <v>4941</v>
-      </c>
+        <v>13576</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
-        <v>1439</v>
+        <v>13576</v>
       </c>
       <c r="Q45" t="n">
-        <v>-8106</v>
-      </c>
-      <c r="R45" t="n">
-        <v>-293</v>
+        <v>14224</v>
+      </c>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="n">
+        <v>14224</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>cash and cash equivalents, beginning of period</t>
+          <t>cash and cash equivalents, end of period</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7663</v>
+        <v>15137</v>
       </c>
       <c r="C46" t="n">
-        <v>11946</v>
+        <v>6638</v>
       </c>
       <c r="D46" t="n">
-        <v>15137</v>
+        <v>11212</v>
       </c>
       <c r="E46" t="n">
-        <v>6638</v>
+        <v>11356</v>
       </c>
       <c r="F46" t="n">
-        <v>11946</v>
+        <v>11356</v>
       </c>
       <c r="G46" t="n">
-        <v>11356</v>
+        <v>13117</v>
       </c>
       <c r="H46" t="n">
-        <v>13117</v>
+        <v>8864</v>
       </c>
       <c r="I46" t="n">
-        <v>8864</v>
+        <v>11710</v>
       </c>
       <c r="J46" t="n">
-        <v>11356</v>
+        <v>13576</v>
       </c>
       <c r="K46" t="n">
         <v>13576</v>
@@ -2695,76 +3000,27 @@
         <v>14432</v>
       </c>
       <c r="N46" t="n">
-        <v>13576</v>
+        <v>13702</v>
       </c>
       <c r="O46" t="n">
         <v>14224</v>
       </c>
       <c r="P46" t="n">
+        <v>14224</v>
+      </c>
+      <c r="Q46" t="n">
         <v>19165</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="R46" t="n">
         <v>20604</v>
       </c>
-      <c r="R46" t="n">
-        <v>14224</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>cash and cash equivalents, end of period</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>11946</v>
-      </c>
-      <c r="C47" t="n">
-        <v>15137</v>
-      </c>
-      <c r="D47" t="n">
-        <v>6638</v>
-      </c>
-      <c r="E47" t="n">
-        <v>11212</v>
-      </c>
-      <c r="F47" t="n">
-        <v>11356</v>
-      </c>
-      <c r="G47" t="n">
-        <v>13117</v>
-      </c>
-      <c r="H47" t="n">
-        <v>8864</v>
-      </c>
-      <c r="I47" t="n">
-        <v>11710</v>
-      </c>
-      <c r="J47" t="n">
-        <v>13576</v>
-      </c>
-      <c r="K47" t="n">
-        <v>17205</v>
-      </c>
-      <c r="L47" t="n">
-        <v>14432</v>
-      </c>
-      <c r="M47" t="n">
-        <v>13702</v>
-      </c>
-      <c r="N47" t="n">
-        <v>14224</v>
-      </c>
-      <c r="O47" t="n">
-        <v>19165</v>
-      </c>
-      <c r="P47" t="n">
-        <v>20604</v>
-      </c>
-      <c r="Q47" t="n">
+      <c r="S46" t="n">
         <v>12498</v>
       </c>
-      <c r="R47" t="n">
+      <c r="T46" t="n">
+        <v>13931</v>
+      </c>
+      <c r="U46" t="n">
         <v>13931</v>
       </c>
     </row>
@@ -2779,7 +3035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2795,22 +3051,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year Ended 2018</t>
+          <t>Q1 2019</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Q1 2019</t>
+          <t>Q2 2019</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Q2 2019</t>
+          <t>Q3 2019</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Q3 2019</t>
+          <t>Q4 2019</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -2825,22 +3081,22 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Year Ended 2019</t>
+          <t>Q1 2020</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1 2020</t>
+          <t>Q2 2020</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Q2 2020</t>
+          <t>Q3 2020</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Q3 2020</t>
+          <t>Q4 2020</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -2855,22 +3111,22 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Year Ended 2020</t>
+          <t>Q1 2021</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Q1 2021</t>
+          <t>Q2 2021</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Q2 2021</t>
+          <t>Q3 2021</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Q3 2021</t>
+          <t>Q4 2021</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -2885,22 +3141,22 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Year Ended 2021</t>
+          <t>Q1 2022</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Q1 2022</t>
+          <t>Q2 2022</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Q2 2022</t>
+          <t>Q3 2022</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Q3 2022</t>
+          <t>Q4 2022</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -2962,16 +3218,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16571</v>
+        <v>8824</v>
       </c>
       <c r="C3" t="n">
-        <v>8824</v>
+        <v>-404</v>
       </c>
       <c r="D3" t="n">
-        <v>8420</v>
+        <v>389</v>
       </c>
       <c r="E3" t="n">
-        <v>8809</v>
+        <v>30431</v>
       </c>
       <c r="F3" t="n">
         <v>39240</v>
@@ -2982,16 +3238,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>39240</v>
+        <v>10678</v>
       </c>
       <c r="I3" t="n">
-        <v>10678</v>
+        <v>971</v>
       </c>
       <c r="J3" t="n">
-        <v>11649</v>
+        <v>-897</v>
       </c>
       <c r="K3" t="n">
-        <v>10752</v>
+        <v>33529</v>
       </c>
       <c r="L3" t="n">
         <v>44281</v>
@@ -3002,16 +3258,16 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>44281</v>
+        <v>13893</v>
       </c>
       <c r="O3" t="n">
-        <v>13893</v>
+        <v>1570</v>
       </c>
       <c r="P3" t="n">
-        <v>15463</v>
+        <v>-6</v>
       </c>
       <c r="Q3" t="n">
-        <v>15457</v>
+        <v>45814</v>
       </c>
       <c r="R3" t="n">
         <v>61271</v>
@@ -3022,16 +3278,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>61271</v>
+        <v>20505</v>
       </c>
       <c r="U3" t="n">
-        <v>20505</v>
+        <v>-1740</v>
       </c>
       <c r="V3" t="n">
-        <v>18765</v>
+        <v>-2037</v>
       </c>
       <c r="W3" t="n">
-        <v>16728</v>
+        <v>56010</v>
       </c>
       <c r="X3" t="n">
         <v>72738</v>
@@ -3086,32 +3342,40 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>asset impairments</t>
+          <t>depreciation, amortization, and other</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+        <v>2837</v>
+      </c>
+      <c r="C5" t="n">
+        <v>158</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-69</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8756</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11682</v>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>depreciation, amortization, and other</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>11682</v>
+        <v>2971</v>
       </c>
       <c r="I5" t="n">
-        <v>2971</v>
+        <v>232</v>
       </c>
       <c r="J5" t="n">
-        <v>3203</v>
+        <v>-85</v>
       </c>
       <c r="K5" t="n">
-        <v>3118</v>
+        <v>9678</v>
       </c>
       <c r="L5" t="n">
         <v>12796</v>
@@ -3122,16 +3386,16 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>12796</v>
+        <v>2645</v>
       </c>
       <c r="O5" t="n">
-        <v>2645</v>
+        <v>116</v>
       </c>
       <c r="P5" t="n">
-        <v>2761</v>
+        <v>175</v>
       </c>
       <c r="Q5" t="n">
-        <v>2936</v>
+        <v>8750</v>
       </c>
       <c r="R5" t="n">
         <v>11686</v>
@@ -3142,16 +3406,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>11686</v>
+        <v>3212</v>
       </c>
       <c r="U5" t="n">
-        <v>3212</v>
+        <v>284</v>
       </c>
       <c r="V5" t="n">
-        <v>3496</v>
+        <v>277</v>
       </c>
       <c r="W5" t="n">
-        <v>3773</v>
+        <v>10687</v>
       </c>
       <c r="X5" t="n">
         <v>14460</v>
@@ -3160,23 +3424,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>depreciation, amortization, and other</t>
+          <t>stock-based compensation expense</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10261</v>
+        <v>1107</v>
       </c>
       <c r="C6" t="n">
-        <v>2837</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>2995</v>
+        <v>-11</v>
       </c>
       <c r="E6" t="n">
-        <v>2926</v>
+        <v>3480</v>
       </c>
       <c r="F6" t="n">
-        <v>11682</v>
+        <v>4652</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3184,16 +3448,16 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4652</v>
+        <v>1262</v>
       </c>
       <c r="I6" t="n">
-        <v>1262</v>
+        <v>78</v>
       </c>
       <c r="J6" t="n">
-        <v>1340</v>
+        <v>-2</v>
       </c>
       <c r="K6" t="n">
-        <v>1338</v>
+        <v>3951</v>
       </c>
       <c r="L6" t="n">
         <v>5289</v>
@@ -3204,16 +3468,16 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>5289</v>
+        <v>1456</v>
       </c>
       <c r="O6" t="n">
-        <v>1456</v>
+        <v>110</v>
       </c>
       <c r="P6" t="n">
-        <v>1566</v>
+        <v>-41</v>
       </c>
       <c r="Q6" t="n">
-        <v>1525</v>
+        <v>4593</v>
       </c>
       <c r="R6" t="n">
         <v>6118</v>
@@ -3224,16 +3488,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>6118</v>
+        <v>1702</v>
       </c>
       <c r="U6" t="n">
-        <v>1702</v>
+        <v>195</v>
       </c>
       <c r="V6" t="n">
-        <v>1897</v>
+        <v>9</v>
       </c>
       <c r="W6" t="n">
-        <v>1906</v>
+        <v>5596</v>
       </c>
       <c r="X6" t="n">
         <v>7502</v>
@@ -3242,36 +3506,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>stock-based compensation expense</t>
+          <t>net recognized losss on investments and derivatives</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3940</v>
+        <v>-240</v>
       </c>
       <c r="C7" t="n">
-        <v>1107</v>
+        <v>105</v>
       </c>
       <c r="D7" t="n">
-        <v>1183</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>1172</v>
+        <v>-697</v>
       </c>
       <c r="F7" t="n">
-        <v>4652</v>
+        <v>-792</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>net recognized losss on investments and derivatives</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>-792</v>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>-203</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>-219</v>
@@ -3281,13 +3541,9 @@
           <t>net recognized losss on investments and derivatives</t>
         </is>
       </c>
-      <c r="N7" t="n">
-        <v>-219</v>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
-        <v>-354</v>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
         <v>-1249</v>
@@ -3298,14 +3554,12 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>-1249</v>
+        <v>-364</v>
       </c>
       <c r="U7" t="n">
-        <v>-364</v>
-      </c>
-      <c r="V7" t="n">
-        <v>-307</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
         <v>-409</v>
@@ -3314,51 +3568,47 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>net recognized losss on investments and derivatives</t>
+          <t>deferred income taxes</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2212</v>
+        <v>-247</v>
       </c>
       <c r="C8" t="n">
-        <v>-240</v>
+        <v>74</v>
       </c>
       <c r="D8" t="n">
-        <v>-135</v>
+        <v>-147</v>
       </c>
       <c r="E8" t="n">
-        <v>-95</v>
+        <v>-6143</v>
       </c>
       <c r="F8" t="n">
-        <v>-792</v>
+        <v>-6463</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>net recognized losses on investments and derivatives</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
+      <c r="H8" t="n">
         <v>11</v>
       </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>52</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
           <t>net recognized losses on investments and derivatives</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
+      <c r="N8" t="n">
         <v>-128</v>
       </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>-351</v>
-      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
@@ -3368,48 +3618,36 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="n">
-        <v>105</v>
-      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>deferred income taxes</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>-5143</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-247</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-173</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-320</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-6463</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>deferred income taxes</t>
-        </is>
-      </c>
       <c r="H9" t="n">
-        <v>-6463</v>
+        <v>-177</v>
       </c>
       <c r="I9" t="n">
-        <v>-177</v>
+        <v>124</v>
       </c>
       <c r="J9" t="n">
-        <v>-53</v>
+        <v>-153</v>
       </c>
       <c r="K9" t="n">
-        <v>-206</v>
+        <v>217</v>
       </c>
       <c r="L9" t="n">
         <v>11</v>
@@ -3420,16 +3658,16 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="O9" t="n">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="P9" t="n">
-        <v>-17</v>
+        <v>-71</v>
       </c>
       <c r="Q9" t="n">
-        <v>-88</v>
+        <v>-62</v>
       </c>
       <c r="R9" t="n">
         <v>-150</v>
@@ -3440,16 +3678,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>-150</v>
+        <v>-5970</v>
       </c>
       <c r="U9" t="n">
-        <v>-5970</v>
+        <v>6153</v>
       </c>
       <c r="V9" t="n">
-        <v>183</v>
+        <v>-381</v>
       </c>
       <c r="W9" t="n">
-        <v>-198</v>
+        <v>-5504</v>
       </c>
       <c r="X9" t="n">
         <v>-5702</v>
@@ -3458,14 +3696,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>accounts receivable</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9194</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-11590</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2856</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-3272</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-2812</v>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>changes in operating assets and liabilities:</t>
@@ -3504,40 +3752,40 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>inventories</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-956</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2610</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1642</v>
+      </c>
+      <c r="E11" t="n">
+        <v>585</v>
+      </c>
+      <c r="F11" t="n">
+        <v>597</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>accounts receivable</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>-3862</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9194</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-2396</v>
-      </c>
-      <c r="E11" t="n">
-        <v>460</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-2812</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>accounts receivable</t>
-        </is>
-      </c>
       <c r="H11" t="n">
-        <v>-2812</v>
+        <v>10090</v>
       </c>
       <c r="I11" t="n">
-        <v>10090</v>
+        <v>-14293</v>
       </c>
       <c r="J11" t="n">
-        <v>-4203</v>
+        <v>5094</v>
       </c>
       <c r="K11" t="n">
-        <v>891</v>
+        <v>-3468</v>
       </c>
       <c r="L11" t="n">
         <v>-2577</v>
@@ -3548,16 +3796,16 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>-2577</v>
+        <v>8843</v>
       </c>
       <c r="O11" t="n">
-        <v>8843</v>
+        <v>-12851</v>
       </c>
       <c r="P11" t="n">
-        <v>-4008</v>
+        <v>4298</v>
       </c>
       <c r="Q11" t="n">
-        <v>290</v>
+        <v>-6771</v>
       </c>
       <c r="R11" t="n">
         <v>-6481</v>
@@ -3568,16 +3816,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>-6481</v>
+        <v>10486</v>
       </c>
       <c r="U11" t="n">
-        <v>10486</v>
+        <v>-16029</v>
       </c>
       <c r="V11" t="n">
-        <v>-5543</v>
+        <v>6400</v>
       </c>
       <c r="W11" t="n">
-        <v>857</v>
+        <v>-7691</v>
       </c>
       <c r="X11" t="n">
         <v>-6834</v>
@@ -3586,40 +3834,40 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>other current assets</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-677</v>
+      </c>
+      <c r="C12" t="n">
+        <v>504</v>
+      </c>
+      <c r="D12" t="n">
+        <v>159</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1704</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-1718</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>inventories</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>-465</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-956</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1654</v>
-      </c>
-      <c r="E12" t="n">
-        <v>12</v>
-      </c>
-      <c r="F12" t="n">
-        <v>597</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>inventories</t>
-        </is>
-      </c>
       <c r="H12" t="n">
-        <v>597</v>
+        <v>-561</v>
       </c>
       <c r="I12" t="n">
-        <v>-561</v>
+        <v>1360</v>
       </c>
       <c r="J12" t="n">
-        <v>799</v>
+        <v>-618</v>
       </c>
       <c r="K12" t="n">
-        <v>181</v>
+        <v>-13</v>
       </c>
       <c r="L12" t="n">
         <v>168</v>
@@ -3630,16 +3878,16 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>168</v>
+        <v>-808</v>
       </c>
       <c r="O12" t="n">
-        <v>-808</v>
+        <v>1596</v>
       </c>
       <c r="P12" t="n">
-        <v>788</v>
+        <v>-1117</v>
       </c>
       <c r="Q12" t="n">
-        <v>-329</v>
+        <v>-408</v>
       </c>
       <c r="R12" t="n">
         <v>-737</v>
@@ -3650,16 +3898,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>-737</v>
+        <v>-777</v>
       </c>
       <c r="U12" t="n">
-        <v>-777</v>
+        <v>1171</v>
       </c>
       <c r="V12" t="n">
-        <v>394</v>
+        <v>-673</v>
       </c>
       <c r="W12" t="n">
-        <v>-279</v>
+        <v>-844</v>
       </c>
       <c r="X12" t="n">
         <v>-1123</v>
@@ -3668,40 +3916,40 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>other long-term assets</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>21</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-494</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-44</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1317</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-1834</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>other current assets</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>-952</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-677</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-173</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-14</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-1718</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>other current assets</t>
-        </is>
-      </c>
       <c r="H13" t="n">
-        <v>-1718</v>
+        <v>-438</v>
       </c>
       <c r="I13" t="n">
-        <v>-438</v>
+        <v>603</v>
       </c>
       <c r="J13" t="n">
-        <v>165</v>
+        <v>-71</v>
       </c>
       <c r="K13" t="n">
-        <v>94</v>
+        <v>-2424</v>
       </c>
       <c r="L13" t="n">
         <v>-2330</v>
@@ -3712,16 +3960,16 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>-2330</v>
+        <v>-54</v>
       </c>
       <c r="O13" t="n">
-        <v>-54</v>
+        <v>784</v>
       </c>
       <c r="P13" t="n">
-        <v>730</v>
+        <v>-252</v>
       </c>
       <c r="Q13" t="n">
-        <v>478</v>
+        <v>-1410</v>
       </c>
       <c r="R13" t="n">
         <v>-932</v>
@@ -3732,16 +3980,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>-932</v>
+        <v>940</v>
       </c>
       <c r="U13" t="n">
-        <v>940</v>
+        <v>-110</v>
       </c>
       <c r="V13" t="n">
-        <v>830</v>
+        <v>-739</v>
       </c>
       <c r="W13" t="n">
-        <v>91</v>
+        <v>-800</v>
       </c>
       <c r="X13" t="n">
         <v>-709</v>
@@ -3750,40 +3998,40 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>accounts payable</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-395</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-45</v>
+      </c>
+      <c r="D14" t="n">
+        <v>243</v>
+      </c>
+      <c r="E14" t="n">
+        <v>429</v>
+      </c>
+      <c r="F14" t="n">
+        <v>232</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>other long-term assets</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>-285</v>
-      </c>
-      <c r="C14" t="n">
-        <v>21</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-473</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-517</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-1834</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>other long-term assets</t>
-        </is>
-      </c>
       <c r="H14" t="n">
-        <v>-1834</v>
+        <v>-333</v>
       </c>
       <c r="I14" t="n">
-        <v>-333</v>
+        <v>-184</v>
       </c>
       <c r="J14" t="n">
-        <v>-517</v>
+        <v>641</v>
       </c>
       <c r="K14" t="n">
-        <v>124</v>
+        <v>-1161</v>
       </c>
       <c r="L14" t="n">
         <v>-1037</v>
@@ -3794,16 +4042,16 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>-1037</v>
+        <v>-62</v>
       </c>
       <c r="O14" t="n">
-        <v>-62</v>
+        <v>-1437</v>
       </c>
       <c r="P14" t="n">
-        <v>-1499</v>
+        <v>614</v>
       </c>
       <c r="Q14" t="n">
-        <v>-885</v>
+        <v>-2574</v>
       </c>
       <c r="R14" t="n">
         <v>-3459</v>
@@ -3814,16 +4062,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>-3459</v>
+        <v>-598</v>
       </c>
       <c r="U14" t="n">
-        <v>-598</v>
+        <v>-310</v>
       </c>
       <c r="V14" t="n">
-        <v>-908</v>
+        <v>184</v>
       </c>
       <c r="W14" t="n">
-        <v>-724</v>
+        <v>-2081</v>
       </c>
       <c r="X14" t="n">
         <v>-2805</v>
@@ -3832,40 +4080,40 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>unearned revenue</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-2441</v>
+      </c>
+      <c r="C15" t="n">
+        <v>319</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2142</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4442</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4462</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>accounts payable</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>1148</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-395</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-440</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-197</v>
-      </c>
-      <c r="F15" t="n">
-        <v>232</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>accounts payable</t>
-        </is>
-      </c>
       <c r="H15" t="n">
-        <v>232</v>
+        <v>-547</v>
       </c>
       <c r="I15" t="n">
-        <v>-547</v>
+        <v>540</v>
       </c>
       <c r="J15" t="n">
-        <v>-7</v>
+        <v>553</v>
       </c>
       <c r="K15" t="n">
-        <v>546</v>
+        <v>2472</v>
       </c>
       <c r="L15" t="n">
         <v>3018</v>
@@ -3876,16 +4124,16 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3018</v>
+        <v>315</v>
       </c>
       <c r="O15" t="n">
-        <v>315</v>
+        <v>-282</v>
       </c>
       <c r="P15" t="n">
-        <v>33</v>
+        <v>800</v>
       </c>
       <c r="Q15" t="n">
-        <v>833</v>
+        <v>1965</v>
       </c>
       <c r="R15" t="n">
         <v>2798</v>
@@ -3896,16 +4144,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2798</v>
+        <v>-471</v>
       </c>
       <c r="U15" t="n">
-        <v>-471</v>
+        <v>706</v>
       </c>
       <c r="V15" t="n">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="W15" t="n">
-        <v>520</v>
+        <v>2423</v>
       </c>
       <c r="X15" t="n">
         <v>2943</v>
@@ -3914,40 +4162,40 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>income taxes</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-1091</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1027</v>
+      </c>
+      <c r="D16" t="n">
+        <v>340</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2653</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2929</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>unearned revenue</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>5922</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-2441</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-2122</v>
-      </c>
-      <c r="E16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4462</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>unearned revenue</t>
-        </is>
-      </c>
       <c r="H16" t="n">
-        <v>4462</v>
+        <v>-2892</v>
       </c>
       <c r="I16" t="n">
-        <v>-2892</v>
+        <v>-44</v>
       </c>
       <c r="J16" t="n">
-        <v>-2936</v>
+        <v>2200</v>
       </c>
       <c r="K16" t="n">
-        <v>-736</v>
+        <v>2948</v>
       </c>
       <c r="L16" t="n">
         <v>2212</v>
@@ -3958,16 +4206,16 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2212</v>
+        <v>-3064</v>
       </c>
       <c r="O16" t="n">
-        <v>-3064</v>
+        <v>-163</v>
       </c>
       <c r="P16" t="n">
-        <v>-3227</v>
+        <v>2754</v>
       </c>
       <c r="Q16" t="n">
-        <v>-473</v>
+        <v>5106</v>
       </c>
       <c r="R16" t="n">
         <v>4633</v>
@@ -3978,16 +4226,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4633</v>
+        <v>-2885</v>
       </c>
       <c r="U16" t="n">
-        <v>-2885</v>
+        <v>-1458</v>
       </c>
       <c r="V16" t="n">
-        <v>-4343</v>
+        <v>4134</v>
       </c>
       <c r="W16" t="n">
-        <v>-209</v>
+        <v>5318</v>
       </c>
       <c r="X16" t="n">
         <v>5109</v>
@@ -3996,40 +4244,40 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>other current liabilities</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2322</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2978</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>770</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1419</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>income taxes</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>18183</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-1091</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-64</v>
-      </c>
-      <c r="E17" t="n">
-        <v>276</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2929</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>income taxes</t>
-        </is>
-      </c>
       <c r="H17" t="n">
-        <v>2929</v>
+        <v>-3336</v>
       </c>
       <c r="I17" t="n">
-        <v>-3336</v>
+        <v>2865</v>
       </c>
       <c r="J17" t="n">
-        <v>-471</v>
+        <v>1236</v>
       </c>
       <c r="K17" t="n">
-        <v>765</v>
+        <v>-4396</v>
       </c>
       <c r="L17" t="n">
         <v>-3631</v>
@@ -4040,16 +4288,16 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>-3631</v>
+        <v>-983</v>
       </c>
       <c r="O17" t="n">
-        <v>-983</v>
+        <v>-1385</v>
       </c>
       <c r="P17" t="n">
-        <v>-2368</v>
+        <v>3442</v>
       </c>
       <c r="Q17" t="n">
-        <v>1074</v>
+        <v>-3383</v>
       </c>
       <c r="R17" t="n">
         <v>-2309</v>
@@ -4060,16 +4308,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>-2309</v>
+        <v>2653</v>
       </c>
       <c r="U17" t="n">
-        <v>2653</v>
+        <v>-4710</v>
       </c>
       <c r="V17" t="n">
-        <v>-2057</v>
+        <v>3148</v>
       </c>
       <c r="W17" t="n">
-        <v>1091</v>
+        <v>-395</v>
       </c>
       <c r="X17" t="n">
         <v>696</v>
@@ -4078,40 +4326,40 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>43</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-75</v>
+      </c>
+      <c r="D18" t="n">
+        <v>371</v>
+      </c>
+      <c r="E18" t="n">
+        <v>252</v>
+      </c>
+      <c r="F18" t="n">
+        <v>591</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>other current liabilities</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>798</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-2322</v>
-      </c>
-      <c r="D18" t="n">
-        <v>656</v>
-      </c>
-      <c r="E18" t="n">
-        <v>649</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1419</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>other current liabilities</t>
-        </is>
-      </c>
       <c r="H18" t="n">
-        <v>1419</v>
+        <v>-3320</v>
       </c>
       <c r="I18" t="n">
-        <v>-3320</v>
+        <v>4809</v>
       </c>
       <c r="J18" t="n">
-        <v>1489</v>
+        <v>-794</v>
       </c>
       <c r="K18" t="n">
-        <v>695</v>
+        <v>651</v>
       </c>
       <c r="L18" t="n">
         <v>1346</v>
@@ -4122,16 +4370,16 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>1346</v>
+        <v>-2951</v>
       </c>
       <c r="O18" t="n">
-        <v>-2951</v>
+        <v>4706</v>
       </c>
       <c r="P18" t="n">
-        <v>1755</v>
+        <v>-165</v>
       </c>
       <c r="Q18" t="n">
-        <v>1590</v>
+        <v>2559</v>
       </c>
       <c r="R18" t="n">
         <v>4149</v>
@@ -4142,16 +4390,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4149</v>
+        <v>-4143</v>
       </c>
       <c r="U18" t="n">
-        <v>-4143</v>
+        <v>5888</v>
       </c>
       <c r="V18" t="n">
-        <v>1745</v>
+        <v>-458</v>
       </c>
       <c r="W18" t="n">
-        <v>1287</v>
+        <v>1057</v>
       </c>
       <c r="X18" t="n">
         <v>2344</v>
@@ -4160,40 +4408,40 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>net cash from operations</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>13657</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-4757</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4620</v>
+      </c>
+      <c r="E19" t="n">
+        <v>38665</v>
+      </c>
+      <c r="F19" t="n">
+        <v>52185</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>other long-term liabilities</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>-20</v>
-      </c>
-      <c r="C19" t="n">
-        <v>43</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-32</v>
-      </c>
-      <c r="E19" t="n">
-        <v>339</v>
-      </c>
-      <c r="F19" t="n">
-        <v>591</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>other long-term liabilities</t>
-        </is>
-      </c>
       <c r="H19" t="n">
-        <v>591</v>
+        <v>410</v>
       </c>
       <c r="I19" t="n">
-        <v>410</v>
+        <v>15</v>
       </c>
       <c r="J19" t="n">
-        <v>425</v>
+        <v>-535</v>
       </c>
       <c r="K19" t="n">
-        <v>-110</v>
+        <v>1458</v>
       </c>
       <c r="L19" t="n">
         <v>1348</v>
@@ -4204,16 +4452,16 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>1348</v>
+        <v>244</v>
       </c>
       <c r="O19" t="n">
-        <v>244</v>
+        <v>649</v>
       </c>
       <c r="P19" t="n">
-        <v>893</v>
+        <v>-771</v>
       </c>
       <c r="Q19" t="n">
-        <v>122</v>
+        <v>1280</v>
       </c>
       <c r="R19" t="n">
         <v>1402</v>
@@ -4224,16 +4472,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1402</v>
+        <v>250</v>
       </c>
       <c r="U19" t="n">
-        <v>250</v>
+        <v>-157</v>
       </c>
       <c r="V19" t="n">
-        <v>93</v>
+        <v>345</v>
       </c>
       <c r="W19" t="n">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="X19" t="n">
         <v>825</v>
@@ -4242,40 +4490,30 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>financing</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>net cash from operations</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>43884</v>
-      </c>
-      <c r="C20" t="n">
-        <v>13657</v>
-      </c>
-      <c r="D20" t="n">
-        <v>8900</v>
-      </c>
-      <c r="E20" t="n">
-        <v>13520</v>
-      </c>
-      <c r="F20" t="n">
-        <v>52185</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>net cash from operations</t>
-        </is>
-      </c>
       <c r="H20" t="n">
-        <v>52185</v>
+        <v>13818</v>
       </c>
       <c r="I20" t="n">
-        <v>13818</v>
+        <v>-3138</v>
       </c>
       <c r="J20" t="n">
-        <v>10680</v>
+        <v>6824</v>
       </c>
       <c r="K20" t="n">
-        <v>17504</v>
+        <v>43171</v>
       </c>
       <c r="L20" t="n">
         <v>60675</v>
@@ -4286,16 +4524,16 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>60675</v>
+        <v>19335</v>
       </c>
       <c r="O20" t="n">
-        <v>19335</v>
+        <v>-6819</v>
       </c>
       <c r="P20" t="n">
-        <v>12516</v>
+        <v>9663</v>
       </c>
       <c r="Q20" t="n">
-        <v>22179</v>
+        <v>54561</v>
       </c>
       <c r="R20" t="n">
         <v>76740</v>
@@ -4306,16 +4544,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>76740</v>
+        <v>24540</v>
       </c>
       <c r="U20" t="n">
-        <v>24540</v>
+        <v>-10060</v>
       </c>
       <c r="V20" t="n">
-        <v>14480</v>
+        <v>10906</v>
       </c>
       <c r="W20" t="n">
-        <v>25386</v>
+        <v>63649</v>
       </c>
       <c r="X20" t="n">
         <v>89035</v>
@@ -4324,7 +4562,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>financing</t>
+          <t>proceeds from issuance of short-term debt, maturities of days or less, net</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -4370,52 +4608,60 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>proceeds from issuance of short-term debt, maturities of days or less, net</t>
+          <t>repayments of short-term debt, maturities of days or less, net</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-7324</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>repayments of short-term debt, maturities of days or less, net</t>
+          <t>repayments of debt</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>-2500</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2482</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-2982</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-2518</v>
+      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-5518</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>repayments of short-term debt, maturities of days or less, net</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
+          <t>cash premium on debt exchange</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-1754</v>
+      </c>
       <c r="S22" t="inlineStr">
         <is>
           <t>cash premium on debt exchange</t>
         </is>
       </c>
-      <c r="T22" t="n">
-        <v>-1754</v>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
@@ -4428,14 +4674,18 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>repayments of short-term debt, maturities of days or less, net</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>proceeds from issuance of debt</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
@@ -4444,12 +4694,10 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>proceeds from issuance of debt</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+          <t>repayments of short-term debt, maturities of days or less, net</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -4458,32 +4706,40 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>proceeds from issuance of debt</t>
+          <t>repayments of debt</t>
         </is>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>-3250</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2750</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-3250</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-3750</v>
+      </c>
       <c r="S23" t="inlineStr">
         <is>
           <t>repayments of debt</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>-3750</v>
+        <v>-4826</v>
       </c>
       <c r="U23" t="n">
+        <v>4826</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-4197</v>
+      </c>
+      <c r="W23" t="n">
         <v>-4826</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>-4197</v>
       </c>
       <c r="X23" t="n">
         <v>-9023</v>
@@ -4492,27 +4748,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>repayments of debt</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-4000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-4000</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>proceeds from issuance of debt</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>7183</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>cash premium on debt exchange</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -4520,23 +4776,27 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>-3417</v>
+        <v>0</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>cash premium on debt exchange</t>
+          <t>common stock issued</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>-3417</v>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+        <v>545</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-243</v>
+      </c>
+      <c r="P24" t="n">
+        <v>94</v>
+      </c>
       <c r="Q24" t="n">
-        <v>-1754</v>
+        <v>1297</v>
       </c>
       <c r="R24" t="n">
-        <v>-1754</v>
+        <v>1693</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -4544,16 +4804,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1693</v>
+        <v>612</v>
       </c>
       <c r="U24" t="n">
-        <v>612</v>
+        <v>-321</v>
       </c>
       <c r="V24" t="n">
-        <v>291</v>
+        <v>186</v>
       </c>
       <c r="W24" t="n">
-        <v>477</v>
+        <v>1364</v>
       </c>
       <c r="X24" t="n">
         <v>1841</v>
@@ -4562,63 +4822,63 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>repayments of debt</t>
+          <t>common stock issued</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-10060</v>
+        <v>360</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="D25" t="n">
-        <v>-3000</v>
+        <v>74</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="F25" t="n">
-        <v>-4000</v>
+        <v>1142</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>repayments of debt</t>
+          <t>common stock issued</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-4000</v>
+        <v>427</v>
       </c>
       <c r="I25" t="n">
-        <v>-2500</v>
+        <v>-193</v>
       </c>
       <c r="J25" t="n">
-        <v>-18</v>
+        <v>108</v>
       </c>
       <c r="K25" t="n">
-        <v>-3000</v>
+        <v>1001</v>
       </c>
       <c r="L25" t="n">
-        <v>-5518</v>
+        <v>1343</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>repayments of debt</t>
+          <t>common stock repurchased</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>-5518</v>
+        <v>-6743</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="P25" t="n">
-        <v>-3250</v>
+        <v>-395</v>
       </c>
       <c r="Q25" t="n">
-        <v>-500</v>
+        <v>-20455</v>
       </c>
       <c r="R25" t="n">
-        <v>-3750</v>
+        <v>-27385</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -4626,16 +4886,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>-27385</v>
+        <v>-7684</v>
       </c>
       <c r="U25" t="n">
-        <v>-7684</v>
+        <v>251</v>
       </c>
       <c r="V25" t="n">
-        <v>-7433</v>
+        <v>-1389</v>
       </c>
       <c r="W25" t="n">
-        <v>-8822</v>
+        <v>-23874</v>
       </c>
       <c r="X25" t="n">
         <v>-32696</v>
@@ -4644,63 +4904,55 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>common stock issued</t>
+          <t>common stock repurchased</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1002</v>
+        <v>-3744</v>
       </c>
       <c r="C26" t="n">
-        <v>360</v>
+        <v>-2669</v>
       </c>
       <c r="D26" t="n">
-        <v>200</v>
+        <v>1660</v>
       </c>
       <c r="E26" t="n">
-        <v>274</v>
+        <v>-14790</v>
       </c>
       <c r="F26" t="n">
-        <v>1142</v>
+        <v>-19543</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>common stock issued</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1142</v>
-      </c>
-      <c r="I26" t="n">
-        <v>427</v>
-      </c>
-      <c r="J26" t="n">
-        <v>234</v>
-      </c>
-      <c r="K26" t="n">
-        <v>342</v>
-      </c>
+          <t>cash premium on debt exchange</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>1343</v>
+        <v>-3417</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>common stock issued</t>
+          <t>common stock cash dividends paid</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>1343</v>
+        <v>-3856</v>
       </c>
       <c r="O26" t="n">
-        <v>545</v>
+        <v>-374</v>
       </c>
       <c r="P26" t="n">
-        <v>302</v>
+        <v>9</v>
       </c>
       <c r="Q26" t="n">
-        <v>396</v>
+        <v>-12300</v>
       </c>
       <c r="R26" t="n">
-        <v>1693</v>
+        <v>-16521</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -4708,16 +4960,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>-16521</v>
+        <v>-4206</v>
       </c>
       <c r="U26" t="n">
-        <v>-4206</v>
+        <v>-446</v>
       </c>
       <c r="V26" t="n">
-        <v>-4652</v>
+        <v>7</v>
       </c>
       <c r="W26" t="n">
-        <v>-4645</v>
+        <v>-13490</v>
       </c>
       <c r="X26" t="n">
         <v>-18135</v>
@@ -4726,63 +4978,63 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>common stock cash dividends paid</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-3220</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-324</v>
+      </c>
+      <c r="D27" t="n">
+        <v>18</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-10285</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-13811</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>common stock repurchased</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>-10721</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-3744</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-6413</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-4753</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-19543</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>common stock repurchased</t>
-        </is>
-      </c>
       <c r="H27" t="n">
-        <v>-19543</v>
+        <v>-4912</v>
       </c>
       <c r="I27" t="n">
-        <v>-4912</v>
+        <v>-294</v>
       </c>
       <c r="J27" t="n">
-        <v>-5206</v>
+        <v>-1853</v>
       </c>
       <c r="K27" t="n">
-        <v>-7059</v>
+        <v>-15909</v>
       </c>
       <c r="L27" t="n">
         <v>-22968</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>common stock repurchased</t>
+          <t>other, net</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>-22968</v>
+        <v>-235</v>
       </c>
       <c r="O27" t="n">
-        <v>-6743</v>
+        <v>314</v>
       </c>
       <c r="P27" t="n">
-        <v>-6535</v>
+        <v>-262</v>
       </c>
       <c r="Q27" t="n">
-        <v>-6930</v>
+        <v>-586</v>
       </c>
       <c r="R27" t="n">
-        <v>-27385</v>
+        <v>-769</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -4790,16 +5042,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>-769</v>
+        <v>-172</v>
       </c>
       <c r="U27" t="n">
-        <v>-172</v>
+        <v>-20</v>
       </c>
       <c r="V27" t="n">
-        <v>-192</v>
+        <v>34</v>
       </c>
       <c r="W27" t="n">
-        <v>-158</v>
+        <v>-705</v>
       </c>
       <c r="X27" t="n">
         <v>-863</v>
@@ -4808,63 +5060,63 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>other, net</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-780</v>
+      </c>
+      <c r="C28" t="n">
+        <v>321</v>
+      </c>
+      <c r="D28" t="n">
+        <v>863</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1079</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-675</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>common stock cash dividends paid</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>-12699</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-3220</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-3544</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-3526</v>
-      </c>
-      <c r="F28" t="n">
-        <v>-13811</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>common stock cash dividends paid</t>
-        </is>
-      </c>
       <c r="H28" t="n">
-        <v>-13811</v>
+        <v>-3510</v>
       </c>
       <c r="I28" t="n">
-        <v>-3510</v>
+        <v>-376</v>
       </c>
       <c r="J28" t="n">
-        <v>-3886</v>
+        <v>10</v>
       </c>
       <c r="K28" t="n">
-        <v>-3876</v>
+        <v>-11261</v>
       </c>
       <c r="L28" t="n">
         <v>-15137</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>common stock cash dividends paid</t>
+          <t>net cash used in financing</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>-15137</v>
+        <v>-10289</v>
       </c>
       <c r="O28" t="n">
-        <v>-3856</v>
+        <v>-3345</v>
       </c>
       <c r="P28" t="n">
-        <v>-4230</v>
+        <v>442</v>
       </c>
       <c r="Q28" t="n">
-        <v>-4221</v>
+        <v>-35294</v>
       </c>
       <c r="R28" t="n">
-        <v>-16521</v>
+        <v>-48486</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -4872,16 +5124,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>-48486</v>
+        <v>-16276</v>
       </c>
       <c r="U28" t="n">
-        <v>-16276</v>
+        <v>4290</v>
       </c>
       <c r="V28" t="n">
-        <v>-11986</v>
+        <v>-5359</v>
       </c>
       <c r="W28" t="n">
-        <v>-17345</v>
+        <v>-41531</v>
       </c>
       <c r="X28" t="n">
         <v>-58876</v>
@@ -4890,64 +5142,46 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>net cash from financing</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-36887</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>other, net</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>-971</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-780</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-459</v>
-      </c>
-      <c r="E29" t="n">
-        <v>404</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-675</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>other, net</t>
-        </is>
-      </c>
       <c r="H29" t="n">
-        <v>-675</v>
+        <v>286</v>
       </c>
       <c r="I29" t="n">
-        <v>286</v>
+        <v>-325</v>
       </c>
       <c r="J29" t="n">
-        <v>-39</v>
+        <v>-1013</v>
       </c>
       <c r="K29" t="n">
-        <v>-1052</v>
+        <v>718</v>
       </c>
       <c r="L29" t="n">
         <v>-334</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>other, net</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>-334</v>
-      </c>
-      <c r="O29" t="n">
-        <v>-235</v>
-      </c>
-      <c r="P29" t="n">
-        <v>79</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>-183</v>
-      </c>
-      <c r="R29" t="n">
-        <v>-769</v>
-      </c>
+          <t>investing</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
           <t>investing</t>
@@ -4966,49 +5200,59 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>net cash from financing</t>
+          <t>net cash used in financing</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-33590</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+        <v>-7384</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-5832</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5615</v>
+      </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="n">
-        <v>-36887</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>net cash from financing</t>
+          <t>net cash used in financing</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>-36887</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+        <v>-10209</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1294</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-5730</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-31386</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-46031</v>
+      </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>net cash used in financing</t>
+          <t>additions to property and equipment</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>-46031</v>
+        <v>-4907</v>
       </c>
       <c r="O30" t="n">
-        <v>-10289</v>
+        <v>733</v>
       </c>
       <c r="P30" t="n">
-        <v>-13634</v>
+        <v>-915</v>
       </c>
       <c r="Q30" t="n">
-        <v>-13192</v>
+        <v>-15533</v>
       </c>
       <c r="R30" t="n">
-        <v>-48486</v>
+        <v>-20622</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -5016,16 +5260,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>-20622</v>
+        <v>-5810</v>
       </c>
       <c r="U30" t="n">
-        <v>-5810</v>
+        <v>-55</v>
       </c>
       <c r="V30" t="n">
-        <v>-5865</v>
+        <v>525</v>
       </c>
       <c r="W30" t="n">
-        <v>-5340</v>
+        <v>-18546</v>
       </c>
       <c r="X30" t="n">
         <v>-23886</v>
@@ -5034,64 +5278,60 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>net cash used in financing</t>
+          <t>investing</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
-        <v>-7384</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-13216</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-7601</v>
-      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>net cash used in financing</t>
+          <t>investing</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="n">
-        <v>-10209</v>
-      </c>
-      <c r="J31" t="n">
-        <v>-8915</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-14645</v>
-      </c>
-      <c r="L31" t="n">
-        <v>-46031</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>investing</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+          <t>acquisition of companies, net of cash acquired, and purchases of intangible and other assets</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>-481</v>
+      </c>
+      <c r="O31" t="n">
+        <v>66</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-7097</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-1397</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-8909</v>
+      </c>
       <c r="S31" t="inlineStr">
         <is>
           <t>acquisition of companies, net of cash acquired, and purchases of intangible and other assets</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>-8909</v>
+        <v>-1206</v>
       </c>
       <c r="U31" t="n">
-        <v>-1206</v>
+        <v>356</v>
       </c>
       <c r="V31" t="n">
-        <v>-850</v>
+        <v>-17869</v>
       </c>
       <c r="W31" t="n">
-        <v>-18719</v>
+        <v>-3319</v>
       </c>
       <c r="X31" t="n">
         <v>-22038</v>
@@ -5100,43 +5340,63 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>investing</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+          <t>additions to property and equipment</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-3602</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-105</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1142</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-11360</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-13925</v>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>investing</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+          <t>additions to property and equipment</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>-3385</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-160</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-222</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-11674</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-15441</v>
+      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>additions to property and equipment</t>
+          <t>purchases of investments</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>-15441</v>
+        <v>-14580</v>
       </c>
       <c r="O32" t="n">
-        <v>-4907</v>
+        <v>-512</v>
       </c>
       <c r="P32" t="n">
-        <v>-4174</v>
+        <v>-3283</v>
       </c>
       <c r="Q32" t="n">
-        <v>-5089</v>
+        <v>-44549</v>
       </c>
       <c r="R32" t="n">
-        <v>-20622</v>
+        <v>-62924</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -5144,16 +5404,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>-62924</v>
+        <v>-10309</v>
       </c>
       <c r="U32" t="n">
-        <v>-10309</v>
+        <v>7804</v>
       </c>
       <c r="V32" t="n">
-        <v>-2505</v>
+        <v>-6218</v>
       </c>
       <c r="W32" t="n">
-        <v>-8723</v>
+        <v>-17733</v>
       </c>
       <c r="X32" t="n">
         <v>-26456</v>
@@ -5162,63 +5422,63 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>additions to property and equipment</t>
+          <t>acquisition of companies, net of cash acquired, and purchases of intangible and other assets</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-11632</v>
+        <v>-245</v>
       </c>
       <c r="C33" t="n">
-        <v>-3602</v>
+        <v>-1348</v>
       </c>
       <c r="D33" t="n">
-        <v>-3707</v>
+        <v>1324</v>
       </c>
       <c r="E33" t="n">
-        <v>-2565</v>
+        <v>-2119</v>
       </c>
       <c r="F33" t="n">
-        <v>-13925</v>
+        <v>-2388</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>additions to property and equipment</t>
+          <t>acquisition of companies, net of cash acquired, and purchases of intangible and other assets</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>-13925</v>
+        <v>-462</v>
       </c>
       <c r="I33" t="n">
-        <v>-3385</v>
+        <v>382</v>
       </c>
       <c r="J33" t="n">
-        <v>-3545</v>
+        <v>-249</v>
       </c>
       <c r="K33" t="n">
-        <v>-3767</v>
+        <v>-2192</v>
       </c>
       <c r="L33" t="n">
-        <v>-15441</v>
+        <v>-2521</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>acquisition of companies, net of cash acquired, and purchases of intangible and other assets</t>
+          <t>maturities of investments</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>-2521</v>
+        <v>14266</v>
       </c>
       <c r="O33" t="n">
-        <v>-481</v>
+        <v>998</v>
       </c>
       <c r="P33" t="n">
-        <v>-415</v>
+        <v>-248</v>
       </c>
       <c r="Q33" t="n">
-        <v>-7512</v>
+        <v>36776</v>
       </c>
       <c r="R33" t="n">
-        <v>-8909</v>
+        <v>51792</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -5226,16 +5486,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>51792</v>
+        <v>8862</v>
       </c>
       <c r="U33" t="n">
-        <v>8862</v>
+        <v>-3609</v>
       </c>
       <c r="V33" t="n">
-        <v>5253</v>
+        <v>-4154</v>
       </c>
       <c r="W33" t="n">
-        <v>1099</v>
+        <v>15352</v>
       </c>
       <c r="X33" t="n">
         <v>16451</v>
@@ -5244,63 +5504,63 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>acquisition of companies, net of cash acquired, and purchases of intangible and other assets</t>
+          <t>purchases of investments</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-888</v>
+        <v>-19551</v>
       </c>
       <c r="C34" t="n">
-        <v>-245</v>
+        <v>2693</v>
       </c>
       <c r="D34" t="n">
-        <v>-1593</v>
+        <v>11012</v>
       </c>
       <c r="E34" t="n">
-        <v>-269</v>
+        <v>-51851</v>
       </c>
       <c r="F34" t="n">
-        <v>-2388</v>
+        <v>-57697</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>acquisition of companies, net of cash acquired, and purchases of intangible and other assets</t>
+          <t>purchases of investments</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-2388</v>
+        <v>-23390</v>
       </c>
       <c r="I34" t="n">
-        <v>-462</v>
+        <v>4379</v>
       </c>
       <c r="J34" t="n">
-        <v>-80</v>
+        <v>3101</v>
       </c>
       <c r="K34" t="n">
-        <v>-329</v>
+        <v>-61280</v>
       </c>
       <c r="L34" t="n">
-        <v>-2521</v>
+        <v>-77190</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>purchases of investments</t>
+          <t>sales of investments</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>-77190</v>
+        <v>2414</v>
       </c>
       <c r="O34" t="n">
-        <v>-14580</v>
+        <v>7</v>
       </c>
       <c r="P34" t="n">
-        <v>-15092</v>
+        <v>3455</v>
       </c>
       <c r="Q34" t="n">
-        <v>-18375</v>
+        <v>8132</v>
       </c>
       <c r="R34" t="n">
-        <v>-62924</v>
+        <v>14008</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -5308,16 +5568,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>14008</v>
+        <v>5630</v>
       </c>
       <c r="U34" t="n">
-        <v>5630</v>
+        <v>-2735</v>
       </c>
       <c r="V34" t="n">
-        <v>2895</v>
+        <v>13798</v>
       </c>
       <c r="W34" t="n">
-        <v>16693</v>
+        <v>11750</v>
       </c>
       <c r="X34" t="n">
         <v>28443</v>
@@ -5326,63 +5586,63 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>purchases of investments</t>
+          <t>maturities of investments</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-137380</v>
+        <v>5214</v>
       </c>
       <c r="C35" t="n">
-        <v>-19551</v>
+        <v>-1432</v>
       </c>
       <c r="D35" t="n">
-        <v>-16858</v>
+        <v>2111</v>
       </c>
       <c r="E35" t="n">
-        <v>-5846</v>
+        <v>14150</v>
       </c>
       <c r="F35" t="n">
-        <v>-57697</v>
+        <v>20043</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>purchases of investments</t>
+          <t>maturities of investments</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-57697</v>
+        <v>19082</v>
       </c>
       <c r="I35" t="n">
-        <v>-23390</v>
+        <v>-7852</v>
       </c>
       <c r="J35" t="n">
-        <v>-19011</v>
+        <v>6017</v>
       </c>
       <c r="K35" t="n">
-        <v>-15910</v>
+        <v>49202</v>
       </c>
       <c r="L35" t="n">
-        <v>-77190</v>
+        <v>66449</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>maturities of investments</t>
+          <t>other, net</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>66449</v>
+        <v>-2083</v>
       </c>
       <c r="O35" t="n">
-        <v>14266</v>
+        <v>2410</v>
       </c>
       <c r="P35" t="n">
-        <v>15264</v>
+        <v>73</v>
       </c>
       <c r="Q35" t="n">
-        <v>15016</v>
+        <v>-1322</v>
       </c>
       <c r="R35" t="n">
-        <v>51792</v>
+        <v>-922</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -5390,16 +5650,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>-922</v>
+        <v>-417</v>
       </c>
       <c r="U35" t="n">
-        <v>-417</v>
+        <v>328</v>
       </c>
       <c r="V35" t="n">
-        <v>-89</v>
+        <v>-1092</v>
       </c>
       <c r="W35" t="n">
-        <v>-1181</v>
+        <v>-1644</v>
       </c>
       <c r="X35" t="n">
         <v>-2825</v>
@@ -5408,63 +5668,59 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>maturities of investments</t>
+          <t>sales of investments</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>26360</v>
+        <v>15231</v>
       </c>
       <c r="C36" t="n">
-        <v>5214</v>
+        <v>-1055</v>
       </c>
       <c r="D36" t="n">
-        <v>3782</v>
+        <v>-12752</v>
       </c>
       <c r="E36" t="n">
-        <v>5893</v>
+        <v>36770</v>
       </c>
       <c r="F36" t="n">
-        <v>20043</v>
+        <v>38194</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>maturities of investments</t>
+          <t>sales of investments</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>20043</v>
+        <v>6379</v>
       </c>
       <c r="I36" t="n">
-        <v>19082</v>
+        <v>-1009</v>
       </c>
       <c r="J36" t="n">
-        <v>11230</v>
+        <v>-2560</v>
       </c>
       <c r="K36" t="n">
-        <v>17247</v>
+        <v>14911</v>
       </c>
       <c r="L36" t="n">
-        <v>66449</v>
+        <v>17721</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>sales of investments</t>
+          <t>net cash used in investing</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>17721</v>
+        <v>-5371</v>
       </c>
       <c r="O36" t="n">
-        <v>2414</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2421</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5876</v>
-      </c>
+        <v>3702</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>14008</v>
+        <v>-27577</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -5472,16 +5728,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>-27577</v>
+        <v>-3250</v>
       </c>
       <c r="U36" t="n">
-        <v>-3250</v>
+        <v>2089</v>
       </c>
       <c r="V36" t="n">
-        <v>-1161</v>
+        <v>-15010</v>
       </c>
       <c r="W36" t="n">
-        <v>-16171</v>
+        <v>-14140</v>
       </c>
       <c r="X36" t="n">
         <v>-30311</v>
@@ -5490,80 +5746,66 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sales of investments</t>
+          <t>securities lending payable</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>117577</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>15231</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14176</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1424</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>38194</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>sales of investments</t>
+          <t>net cash used in investing</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>38194</v>
+        <v>-1776</v>
       </c>
       <c r="I37" t="n">
-        <v>6379</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5370</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2810</v>
-      </c>
+        <v>-4260</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>17721</v>
+        <v>-12223</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>other, net</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>-1241</v>
-      </c>
-      <c r="O37" t="n">
-        <v>-2083</v>
-      </c>
-      <c r="P37" t="n">
-        <v>327</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>400</v>
-      </c>
-      <c r="R37" t="n">
-        <v>-922</v>
-      </c>
+          <t>net cash from investing</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
           <t>effect of foreign exchange rates on cash and cash equivalents</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>-29</v>
+        <v>-73</v>
       </c>
       <c r="U37" t="n">
-        <v>-73</v>
+        <v>179</v>
       </c>
       <c r="V37" t="n">
-        <v>106</v>
+        <v>-82</v>
       </c>
       <c r="W37" t="n">
-        <v>24</v>
+        <v>-165</v>
       </c>
       <c r="X37" t="n">
         <v>-141</v>
@@ -5572,53 +5814,49 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>securities lending payable</t>
+          <t>net cash used in investing</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-98</v>
+        <v>-2953</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
+        <v>-1247</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-15773</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>securities lending payable</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+          <t>net cash from investing</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>net cash used in investing</t>
+          <t>effect of foreign exchange rates on cash and cash equivalents</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>-12223</v>
+        <v>-46</v>
       </c>
       <c r="O38" t="n">
-        <v>-5371</v>
+        <v>60</v>
       </c>
       <c r="P38" t="n">
-        <v>-1669</v>
-      </c>
-      <c r="Q38" t="inlineStr"/>
+        <v>-47</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
       <c r="R38" t="n">
-        <v>-27577</v>
+        <v>-29</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -5626,16 +5864,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>648</v>
+        <v>4941</v>
       </c>
       <c r="U38" t="n">
-        <v>4941</v>
+        <v>-3502</v>
       </c>
       <c r="V38" t="n">
-        <v>1439</v>
+        <v>-9545</v>
       </c>
       <c r="W38" t="n">
-        <v>-8106</v>
+        <v>7813</v>
       </c>
       <c r="X38" t="n">
         <v>-293</v>
@@ -5644,63 +5882,65 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>net cash used in investing</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-6061</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-2953</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-4200</v>
-      </c>
+          <t>net cash from investing</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="n">
-        <v>-15773</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>other, net</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+          <t>effect of foreign exchange rates on cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>-72</v>
+      </c>
+      <c r="I39" t="n">
+        <v>90</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-82</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-137</v>
+      </c>
       <c r="L39" t="n">
-        <v>-1241</v>
+        <v>-201</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>net cash from investing</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+          <t>net change in cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>3629</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-6402</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2043</v>
+      </c>
       <c r="Q39" t="n">
-        <v>-9684</v>
-      </c>
-      <c r="R39" t="inlineStr"/>
+        <v>1378</v>
+      </c>
+      <c r="R39" t="n">
+        <v>648</v>
+      </c>
       <c r="S39" t="inlineStr">
         <is>
           <t>cash and cash equivalents, beginning of period</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>13576</v>
-      </c>
-      <c r="U39" t="n">
         <v>14224</v>
       </c>
-      <c r="V39" t="n">
-        <v>19165</v>
-      </c>
-      <c r="W39" t="n">
-        <v>20604</v>
-      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="n">
         <v>14224</v>
       </c>
@@ -5708,53 +5948,57 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>net cash from investing</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+          <t>effect of foreign exchange rates on cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-129</v>
+      </c>
+      <c r="C40" t="n">
+        <v>146</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
       <c r="E40" t="n">
-        <v>-1363</v>
-      </c>
-      <c r="F40" t="inlineStr"/>
+        <v>-133</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-115</v>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>net cash used in investing</t>
+          <t>net change in cash and cash equivalents</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>-15773</v>
+        <v>1761</v>
       </c>
       <c r="I40" t="n">
-        <v>-1776</v>
+        <v>-6014</v>
       </c>
       <c r="J40" t="n">
-        <v>-6036</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+        <v>7099</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-626</v>
+      </c>
       <c r="L40" t="n">
-        <v>-12223</v>
+        <v>2220</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>effect of foreign exchange rates on cash and cash equivalents</t>
+          <t>cash and cash equivalents, beginning of period</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>-201</v>
-      </c>
-      <c r="O40" t="n">
-        <v>-46</v>
-      </c>
-      <c r="P40" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>-33</v>
-      </c>
+        <v>13576</v>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>-29</v>
+        <v>13576</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -5762,16 +6006,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>14224</v>
+        <v>19165</v>
       </c>
       <c r="U40" t="n">
-        <v>19165</v>
+        <v>20604</v>
       </c>
       <c r="V40" t="n">
-        <v>20604</v>
+        <v>12498</v>
       </c>
       <c r="W40" t="n">
-        <v>12498</v>
+        <v>13931</v>
       </c>
       <c r="X40" t="n">
         <v>13931</v>
@@ -5780,55 +6024,55 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>effect of foreign exchange rates on cash and cash equivalents</t>
+          <t>net change in cash and cash equivalents</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50</v>
+        <v>3191</v>
       </c>
       <c r="C41" t="n">
-        <v>-129</v>
+        <v>-11690</v>
       </c>
       <c r="D41" t="n">
-        <v>17</v>
+        <v>13073</v>
       </c>
       <c r="E41" t="n">
-        <v>18</v>
+        <v>-5164</v>
       </c>
       <c r="F41" t="n">
-        <v>-115</v>
+        <v>-590</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>net cash from investing</t>
+          <t>other, net</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>51</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>-1241</v>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>net change in cash and cash equivalents</t>
+          <t>cash and cash equivalents, end of period</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2220</v>
+        <v>17205</v>
       </c>
       <c r="O41" t="n">
-        <v>3629</v>
+        <v>14432</v>
       </c>
       <c r="P41" t="n">
-        <v>-2773</v>
+        <v>13702</v>
       </c>
       <c r="Q41" t="n">
-        <v>-730</v>
+        <v>14224</v>
       </c>
       <c r="R41" t="n">
-        <v>648</v>
+        <v>14224</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -5840,64 +6084,38 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>net change in cash and cash equivalents</t>
+          <t>cash and cash equivalents, beginning of period</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4283</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3191</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-8499</v>
-      </c>
-      <c r="E42" t="n">
-        <v>4574</v>
-      </c>
+        <v>11946</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>-590</v>
+        <v>11946</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>effect of foreign exchange rates on cash and cash equivalents</t>
+          <t>cash and cash equivalents, beginning of period</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-115</v>
-      </c>
-      <c r="I42" t="n">
-        <v>-72</v>
-      </c>
-      <c r="J42" t="n">
-        <v>18</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-64</v>
-      </c>
+        <v>11356</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>-201</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>cash and cash equivalents, beginning of period</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
         <v>11356</v>
       </c>
-      <c r="O42" t="n">
-        <v>13576</v>
-      </c>
-      <c r="P42" t="n">
-        <v>17205</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>14432</v>
-      </c>
-      <c r="R42" t="n">
-        <v>13576</v>
-      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -5908,64 +6126,50 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>cash and cash equivalents, beginning of period</t>
+          <t>cash and cash equivalents, end of period</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7663</v>
+        <v>15137</v>
       </c>
       <c r="C43" t="n">
-        <v>11946</v>
+        <v>6638</v>
       </c>
       <c r="D43" t="n">
-        <v>15137</v>
+        <v>11212</v>
       </c>
       <c r="E43" t="n">
-        <v>6638</v>
+        <v>11356</v>
       </c>
       <c r="F43" t="n">
-        <v>11946</v>
+        <v>11356</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>net change in cash and cash equivalents</t>
+          <t>cash and cash equivalents, end of period</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>-590</v>
+        <v>13117</v>
       </c>
       <c r="I43" t="n">
-        <v>1761</v>
+        <v>8864</v>
       </c>
       <c r="J43" t="n">
-        <v>-4253</v>
+        <v>11710</v>
       </c>
       <c r="K43" t="n">
-        <v>2846</v>
+        <v>13576</v>
       </c>
       <c r="L43" t="n">
-        <v>2220</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>cash and cash equivalents, end of period</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
         <v>13576</v>
       </c>
-      <c r="O43" t="n">
-        <v>17205</v>
-      </c>
-      <c r="P43" t="n">
-        <v>14432</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>13702</v>
-      </c>
-      <c r="R43" t="n">
-        <v>14224</v>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
@@ -5973,100 +6177,6 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>cash and cash equivalents, end of period</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>11946</v>
-      </c>
-      <c r="C44" t="n">
-        <v>15137</v>
-      </c>
-      <c r="D44" t="n">
-        <v>6638</v>
-      </c>
-      <c r="E44" t="n">
-        <v>11212</v>
-      </c>
-      <c r="F44" t="n">
-        <v>11356</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>cash and cash equivalents, beginning of period</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>11946</v>
-      </c>
-      <c r="I44" t="n">
-        <v>11356</v>
-      </c>
-      <c r="J44" t="n">
-        <v>13117</v>
-      </c>
-      <c r="K44" t="n">
-        <v>8864</v>
-      </c>
-      <c r="L44" t="n">
-        <v>11356</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>cash and cash equivalents, end of period</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>11356</v>
-      </c>
-      <c r="I45" t="n">
-        <v>13117</v>
-      </c>
-      <c r="J45" t="n">
-        <v>8864</v>
-      </c>
-      <c r="K45" t="n">
-        <v>11710</v>
-      </c>
-      <c r="L45" t="n">
-        <v>13576</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
